--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_24_12.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_24_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1133482.075952843</v>
+        <v>-1136049.850057084</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767344</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>355.5350489701061</v>
+        <v>355.535048970106</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>338.074099077633</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>327.4842489273084</v>
       </c>
       <c r="E11" t="n">
-        <v>354.7315773788873</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>379.6772530483369</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>384.2056683677818</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>272.3527856880832</v>
       </c>
       <c r="I11" t="n">
-        <v>32.98879388501743</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>92.98930219783111</v>
+        <v>37.82104496070387</v>
       </c>
       <c r="T11" t="n">
-        <v>178.8323516934651</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>223.8349980981436</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>293.600183770158</v>
+        <v>300.5534657767603</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>322.0421760240384</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>342.5323079850945</v>
       </c>
       <c r="Y11" t="n">
-        <v>359.0391459626791</v>
+        <v>359.039145962679</v>
       </c>
     </row>
     <row r="12">
@@ -1534,7 +1534,7 @@
         <v>121.4166803248378</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>119.2351699531946</v>
       </c>
       <c r="F13" t="n">
         <v>118.2222553295567</v>
@@ -1543,7 +1543,7 @@
         <v>139.0435540507893</v>
       </c>
       <c r="H13" t="n">
-        <v>106.5389190560007</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,22 +1576,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>166.3439078744757</v>
       </c>
       <c r="T13" t="n">
         <v>193.2753664738285</v>
       </c>
       <c r="U13" t="n">
-        <v>259.0248567023366</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>224.9388506304535</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>259.3242056432164</v>
       </c>
       <c r="X13" t="n">
-        <v>198.5108626956626</v>
+        <v>19.17135498311231</v>
       </c>
       <c r="Y13" t="n">
         <v>191.3858606587202</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>355.5350489701061</v>
+        <v>355.535048970106</v>
       </c>
       <c r="C14" t="n">
         <v>338.074099077633</v>
@@ -1613,19 +1613,19 @@
         <v>327.4842489273084</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>354.7315773788872</v>
       </c>
       <c r="F14" t="n">
         <v>379.6772530483369</v>
       </c>
       <c r="G14" t="n">
-        <v>137.7889444849618</v>
+        <v>383.7229329600789</v>
       </c>
       <c r="H14" t="n">
-        <v>267.4089716939459</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>14.37813707955141</v>
+        <v>14.3781370795514</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1664,16 +1664,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>300.5534657767604</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>322.0421760240385</v>
+        <v>322.0421760240384</v>
       </c>
       <c r="X14" t="n">
-        <v>342.5323079850945</v>
+        <v>309.8291796017967</v>
       </c>
       <c r="Y14" t="n">
-        <v>359.0391459626791</v>
+        <v>359.039145962679</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1704,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.8172186824772</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1768,22 +1768,22 @@
         <v>140.0480284052533</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>121.4166803248378</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>119.2351699531946</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>118.2222553295567</v>
       </c>
       <c r="G16" t="n">
         <v>138.8270155656537</v>
       </c>
       <c r="H16" t="n">
-        <v>4.946467576197328</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>69.15362771646355</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>61.73335997667279</v>
+        <v>35.97239517398351</v>
       </c>
       <c r="S16" t="n">
         <v>162.5702326380674</v>
@@ -1819,13 +1819,13 @@
         <v>192.3501565827947</v>
       </c>
       <c r="U16" t="n">
-        <v>259.0130455122384</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>224.9388506304535</v>
       </c>
       <c r="W16" t="n">
-        <v>259.3242056432165</v>
+        <v>259.3242056432164</v>
       </c>
       <c r="X16" t="n">
         <v>198.5108626956626</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>11.50304156007098</v>
+        <v>11.50304156007095</v>
       </c>
       <c r="T17" t="n">
         <v>106.2332499115153</v>
@@ -1901,16 +1901,16 @@
         <v>153.3104517307971</v>
       </c>
       <c r="V17" t="n">
-        <v>230.0675382420291</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W17" t="n">
-        <v>251.5562484893082</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X17" t="n">
         <v>272.0463804503642</v>
       </c>
       <c r="Y17" t="n">
-        <v>288.5532184279488</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="18">
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>82.14725995383245</v>
+        <v>82.14725995383242</v>
       </c>
       <c r="C19" t="n">
-        <v>69.56210087052298</v>
+        <v>69.56210087052295</v>
       </c>
       <c r="D19" t="n">
-        <v>50.9307527901075</v>
+        <v>50.93075279010748</v>
       </c>
       <c r="E19" t="n">
-        <v>48.74924241846432</v>
+        <v>48.74924241846429</v>
       </c>
       <c r="F19" t="n">
-        <v>47.73632779482639</v>
+        <v>47.73632779482637</v>
       </c>
       <c r="G19" t="n">
-        <v>68.34108803092337</v>
+        <v>68.34108803092334</v>
       </c>
       <c r="H19" t="n">
-        <v>47.07029468621593</v>
+        <v>47.0702946862159</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>92.08430510333704</v>
+        <v>92.08430510333702</v>
       </c>
       <c r="T19" t="n">
         <v>121.8642290480643</v>
@@ -2059,10 +2059,10 @@
         <v>188.527117977508</v>
       </c>
       <c r="V19" t="n">
-        <v>154.4529230957232</v>
+        <v>154.4529230957231</v>
       </c>
       <c r="W19" t="n">
-        <v>188.8382781084862</v>
+        <v>188.8382781084861</v>
       </c>
       <c r="X19" t="n">
         <v>128.0249351609323</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>11.50304156007098</v>
+        <v>11.50304156007095</v>
       </c>
       <c r="T20" t="n">
         <v>106.2332499115153</v>
@@ -2138,16 +2138,16 @@
         <v>153.3104517307971</v>
       </c>
       <c r="V20" t="n">
-        <v>230.0675382420288</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W20" t="n">
-        <v>251.5562484893082</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X20" t="n">
         <v>272.0463804503642</v>
       </c>
       <c r="Y20" t="n">
-        <v>288.5532184279488</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="21">
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>82.14725995383245</v>
+        <v>82.14725995383242</v>
       </c>
       <c r="C22" t="n">
-        <v>69.56210087052298</v>
+        <v>69.56210087052295</v>
       </c>
       <c r="D22" t="n">
-        <v>50.9307527901075</v>
+        <v>50.93075279010748</v>
       </c>
       <c r="E22" t="n">
-        <v>48.74924241846432</v>
+        <v>48.74924241846429</v>
       </c>
       <c r="F22" t="n">
-        <v>47.73632779482639</v>
+        <v>47.73632779482637</v>
       </c>
       <c r="G22" t="n">
-        <v>68.34108803092337</v>
+        <v>68.34108803092334</v>
       </c>
       <c r="H22" t="n">
-        <v>47.07029468621593</v>
+        <v>47.0702946862159</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>92.08430510333704</v>
+        <v>92.08430510333702</v>
       </c>
       <c r="T22" t="n">
         <v>121.8642290480643</v>
@@ -2296,10 +2296,10 @@
         <v>188.527117977508</v>
       </c>
       <c r="V22" t="n">
-        <v>154.4529230957232</v>
+        <v>154.4529230957231</v>
       </c>
       <c r="W22" t="n">
-        <v>188.8382781084862</v>
+        <v>188.8382781084861</v>
       </c>
       <c r="X22" t="n">
         <v>128.0249351609323</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>11.50304156007098</v>
+        <v>11.50304156007094</v>
       </c>
       <c r="T23" t="n">
         <v>106.2332499115153</v>
@@ -2375,16 +2375,16 @@
         <v>153.3104517307971</v>
       </c>
       <c r="V23" t="n">
-        <v>230.0675382420301</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W23" t="n">
-        <v>251.5562484893082</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X23" t="n">
         <v>272.0463804503642</v>
       </c>
       <c r="Y23" t="n">
-        <v>288.5532184279488</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="24">
@@ -2409,13 +2409,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>134.9994691657079</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
         <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,25 +2473,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>82.14725995383245</v>
+        <v>82.1472599538324</v>
       </c>
       <c r="C25" t="n">
-        <v>69.56210087052298</v>
+        <v>69.56210087052294</v>
       </c>
       <c r="D25" t="n">
-        <v>50.9307527901075</v>
+        <v>50.93075279010746</v>
       </c>
       <c r="E25" t="n">
-        <v>48.74924241846432</v>
+        <v>48.74924241846428</v>
       </c>
       <c r="F25" t="n">
-        <v>47.73632779482639</v>
+        <v>47.73632779482635</v>
       </c>
       <c r="G25" t="n">
-        <v>68.34108803092337</v>
+        <v>68.34108803092333</v>
       </c>
       <c r="H25" t="n">
-        <v>47.07029468621593</v>
+        <v>47.07029468621589</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>92.08430510333704</v>
+        <v>92.084305103337</v>
       </c>
       <c r="T25" t="n">
         <v>121.8642290480643</v>
@@ -2533,10 +2533,10 @@
         <v>188.527117977508</v>
       </c>
       <c r="V25" t="n">
-        <v>154.4529230957232</v>
+        <v>154.4529230957231</v>
       </c>
       <c r="W25" t="n">
-        <v>188.8382781084862</v>
+        <v>188.8382781084861</v>
       </c>
       <c r="X25" t="n">
         <v>128.0249351609323</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>312.2479141287503</v>
+        <v>312.2479141287502</v>
       </c>
       <c r="C26" t="n">
         <v>294.7869642362772</v>
@@ -2561,7 +2561,7 @@
         <v>284.1971140859526</v>
       </c>
       <c r="E26" t="n">
-        <v>311.4444425375315</v>
+        <v>311.4444425375314</v>
       </c>
       <c r="F26" t="n">
         <v>336.3901182069811</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>38.70183425344553</v>
+        <v>38.7018342534455</v>
       </c>
       <c r="T26" t="n">
         <v>133.4320426048898</v>
       </c>
       <c r="U26" t="n">
-        <v>180.5092444241717</v>
+        <v>180.5092444241716</v>
       </c>
       <c r="V26" t="n">
-        <v>257.2663309354046</v>
+        <v>257.2663309354045</v>
       </c>
       <c r="W26" t="n">
-        <v>278.7550411826827</v>
+        <v>278.7550411826826</v>
       </c>
       <c r="X26" t="n">
         <v>299.2451731437387</v>
       </c>
       <c r="Y26" t="n">
-        <v>315.7520111213233</v>
+        <v>315.7520111213232</v>
       </c>
     </row>
     <row r="27">
@@ -2643,7 +2643,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933838</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
         <v>134.9994691657081</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>109.346052647207</v>
+        <v>109.3460526472069</v>
       </c>
       <c r="C28" t="n">
-        <v>96.76089356389753</v>
+        <v>96.76089356389748</v>
       </c>
       <c r="D28" t="n">
-        <v>78.12954548348205</v>
+        <v>78.129545483482</v>
       </c>
       <c r="E28" t="n">
-        <v>75.94803511183886</v>
+        <v>75.94803511183882</v>
       </c>
       <c r="F28" t="n">
-        <v>74.93512048820094</v>
+        <v>74.93512048820089</v>
       </c>
       <c r="G28" t="n">
-        <v>95.53988072429792</v>
+        <v>95.53988072429787</v>
       </c>
       <c r="H28" t="n">
-        <v>74.26908737959047</v>
+        <v>74.26908737959043</v>
       </c>
       <c r="I28" t="n">
-        <v>25.86649287510779</v>
+        <v>25.86649287510775</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>18.44622513531702</v>
+        <v>18.44622513531698</v>
       </c>
       <c r="S28" t="n">
-        <v>119.2830977967116</v>
+        <v>119.2830977967115</v>
       </c>
       <c r="T28" t="n">
-        <v>149.0630217414389</v>
+        <v>149.0630217414388</v>
       </c>
       <c r="U28" t="n">
         <v>215.7259106708825</v>
       </c>
       <c r="V28" t="n">
-        <v>181.6517157890977</v>
+        <v>181.6517157890976</v>
       </c>
       <c r="W28" t="n">
-        <v>216.0370708018607</v>
+        <v>216.0370708018606</v>
       </c>
       <c r="X28" t="n">
         <v>155.2237278543068</v>
       </c>
       <c r="Y28" t="n">
-        <v>148.0987258173645</v>
+        <v>148.0987258173644</v>
       </c>
     </row>
     <row r="29">
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>312.2479141287503</v>
+        <v>312.2479141287502</v>
       </c>
       <c r="C29" t="n">
         <v>294.7869642362772</v>
@@ -2798,7 +2798,7 @@
         <v>284.1971140859526</v>
       </c>
       <c r="E29" t="n">
-        <v>311.4444425375315</v>
+        <v>311.4444425375314</v>
       </c>
       <c r="F29" t="n">
         <v>336.3901182069811</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>38.70183425344553</v>
+        <v>38.70183425344548</v>
       </c>
       <c r="T29" t="n">
         <v>133.4320426048898</v>
       </c>
       <c r="U29" t="n">
-        <v>180.5092444241717</v>
+        <v>180.5092444241716</v>
       </c>
       <c r="V29" t="n">
-        <v>257.2663309354046</v>
+        <v>257.2663309354045</v>
       </c>
       <c r="W29" t="n">
-        <v>278.7550411826827</v>
+        <v>278.7550411826826</v>
       </c>
       <c r="X29" t="n">
         <v>299.2451731437387</v>
       </c>
       <c r="Y29" t="n">
-        <v>315.7520111213233</v>
+        <v>315.7520111213232</v>
       </c>
     </row>
     <row r="30">
@@ -2886,7 +2886,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851112</v>
       </c>
       <c r="I30" t="n">
         <v>18.81721868247742</v>
@@ -2931,7 +2931,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609195</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>109.346052647207</v>
+        <v>109.3460526472069</v>
       </c>
       <c r="C31" t="n">
-        <v>96.76089356389753</v>
+        <v>96.76089356389748</v>
       </c>
       <c r="D31" t="n">
-        <v>78.12954548348205</v>
+        <v>78.129545483482</v>
       </c>
       <c r="E31" t="n">
-        <v>75.94803511183886</v>
+        <v>75.94803511183882</v>
       </c>
       <c r="F31" t="n">
-        <v>74.93512048820094</v>
+        <v>74.93512048820089</v>
       </c>
       <c r="G31" t="n">
-        <v>95.53988072429792</v>
+        <v>95.53988072429787</v>
       </c>
       <c r="H31" t="n">
-        <v>74.26908737959047</v>
+        <v>74.26908737959043</v>
       </c>
       <c r="I31" t="n">
-        <v>25.86649287510779</v>
+        <v>25.86649287510775</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>18.44622513531702</v>
+        <v>18.44622513531698</v>
       </c>
       <c r="S31" t="n">
-        <v>119.2830977967116</v>
+        <v>119.2830977967115</v>
       </c>
       <c r="T31" t="n">
-        <v>149.0630217414389</v>
+        <v>149.0630217414388</v>
       </c>
       <c r="U31" t="n">
         <v>215.7259106708825</v>
       </c>
       <c r="V31" t="n">
-        <v>181.6517157890977</v>
+        <v>181.6517157890976</v>
       </c>
       <c r="W31" t="n">
-        <v>216.0370708018607</v>
+        <v>216.0370708018606</v>
       </c>
       <c r="X31" t="n">
         <v>155.2237278543068</v>
       </c>
       <c r="Y31" t="n">
-        <v>148.0987258173645</v>
+        <v>148.0987258173644</v>
       </c>
     </row>
     <row r="32">
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>312.2479141287503</v>
+        <v>312.2479141287502</v>
       </c>
       <c r="C32" t="n">
         <v>294.7869642362772</v>
@@ -3035,7 +3035,7 @@
         <v>284.1971140859526</v>
       </c>
       <c r="E32" t="n">
-        <v>311.4444425375315</v>
+        <v>311.4444425375314</v>
       </c>
       <c r="F32" t="n">
         <v>336.3901182069811</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>38.70183425344553</v>
+        <v>38.70183425344544</v>
       </c>
       <c r="T32" t="n">
         <v>133.4320426048898</v>
       </c>
       <c r="U32" t="n">
-        <v>180.5092444241717</v>
+        <v>180.5092444241716</v>
       </c>
       <c r="V32" t="n">
-        <v>257.2663309354046</v>
+        <v>257.2663309354045</v>
       </c>
       <c r="W32" t="n">
-        <v>278.7550411826827</v>
+        <v>278.7550411826826</v>
       </c>
       <c r="X32" t="n">
         <v>299.2451731437387</v>
       </c>
       <c r="Y32" t="n">
-        <v>315.7520111213233</v>
+        <v>315.7520111213232</v>
       </c>
     </row>
     <row r="33">
@@ -3123,10 +3123,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851109</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,10 +3153,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S33" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T33" t="n">
         <v>190.7165703189231</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>109.346052647207</v>
+        <v>109.3460526472069</v>
       </c>
       <c r="C34" t="n">
-        <v>96.76089356389753</v>
+        <v>96.76089356389747</v>
       </c>
       <c r="D34" t="n">
-        <v>78.12954548348205</v>
+        <v>78.12954548348199</v>
       </c>
       <c r="E34" t="n">
-        <v>75.94803511183886</v>
+        <v>75.94803511183881</v>
       </c>
       <c r="F34" t="n">
-        <v>74.93512048820094</v>
+        <v>74.93512048820088</v>
       </c>
       <c r="G34" t="n">
-        <v>95.53988072429792</v>
+        <v>95.53988072429786</v>
       </c>
       <c r="H34" t="n">
-        <v>74.26908737959047</v>
+        <v>74.26908737959042</v>
       </c>
       <c r="I34" t="n">
-        <v>25.86649287510779</v>
+        <v>25.86649287510772</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>18.44622513531702</v>
+        <v>18.44622513531695</v>
       </c>
       <c r="S34" t="n">
-        <v>119.2830977967116</v>
+        <v>119.2830977967115</v>
       </c>
       <c r="T34" t="n">
-        <v>149.0630217414389</v>
+        <v>149.0630217414388</v>
       </c>
       <c r="U34" t="n">
         <v>215.7259106708825</v>
       </c>
       <c r="V34" t="n">
-        <v>181.6517157890977</v>
+        <v>181.6517157890976</v>
       </c>
       <c r="W34" t="n">
-        <v>216.0370708018607</v>
+        <v>216.0370708018606</v>
       </c>
       <c r="X34" t="n">
         <v>155.2237278543068</v>
       </c>
       <c r="Y34" t="n">
-        <v>148.0987258173645</v>
+        <v>148.0987258173644</v>
       </c>
     </row>
     <row r="35">
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.50304156007086</v>
+        <v>11.50304156007091</v>
       </c>
       <c r="T35" t="n">
         <v>106.2332499115152</v>
       </c>
       <c r="U35" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307971</v>
       </c>
       <c r="V35" t="n">
         <v>230.06753824203</v>
@@ -3363,7 +3363,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,10 +3390,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T36" t="n">
         <v>190.7165703189231</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.14725995383235</v>
+        <v>82.14725995383237</v>
       </c>
       <c r="C37" t="n">
-        <v>69.56210087052288</v>
+        <v>69.56210087052291</v>
       </c>
       <c r="D37" t="n">
-        <v>50.93075279010741</v>
+        <v>50.93075279010743</v>
       </c>
       <c r="E37" t="n">
-        <v>48.74924241846422</v>
+        <v>48.74924241846425</v>
       </c>
       <c r="F37" t="n">
-        <v>47.73632779482629</v>
+        <v>47.73632779482632</v>
       </c>
       <c r="G37" t="n">
-        <v>68.34108803092327</v>
+        <v>68.3410880309233</v>
       </c>
       <c r="H37" t="n">
-        <v>47.07029468621583</v>
+        <v>47.07029468621586</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>92.08430510333693</v>
+        <v>92.08430510333697</v>
       </c>
       <c r="T37" t="n">
         <v>121.8642290480643</v>
@@ -3490,7 +3490,7 @@
         <v>128.0249351609322</v>
       </c>
       <c r="Y37" t="n">
-        <v>120.8999331239898</v>
+        <v>120.8999331239899</v>
       </c>
     </row>
     <row r="38">
@@ -3512,7 +3512,7 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F38" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G38" t="n">
         <v>313.2370054253485</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.50304156007088</v>
+        <v>11.50304156007087</v>
       </c>
       <c r="T38" t="n">
         <v>106.2332499115152</v>
@@ -3560,13 +3560,13 @@
         <v>153.310451730797</v>
       </c>
       <c r="V38" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W38" t="n">
-        <v>251.5562484893081</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X38" t="n">
-        <v>272.0463804503641</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y38" t="n">
         <v>288.5532184279487</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.14725995383235</v>
+        <v>82.14725995383233</v>
       </c>
       <c r="C40" t="n">
-        <v>69.56210087052288</v>
+        <v>69.56210087052287</v>
       </c>
       <c r="D40" t="n">
-        <v>50.93075279010741</v>
+        <v>50.93075279010739</v>
       </c>
       <c r="E40" t="n">
-        <v>48.74924241846422</v>
+        <v>48.74924241846421</v>
       </c>
       <c r="F40" t="n">
-        <v>47.73632779482629</v>
+        <v>47.73632779482628</v>
       </c>
       <c r="G40" t="n">
-        <v>68.34108803092327</v>
+        <v>68.34108803092326</v>
       </c>
       <c r="H40" t="n">
-        <v>47.07029468621583</v>
+        <v>47.07029468621582</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,19 +3709,19 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>92.08430510333694</v>
+        <v>92.08430510333693</v>
       </c>
       <c r="T40" t="n">
-        <v>121.8642290480643</v>
+        <v>121.8642290480642</v>
       </c>
       <c r="U40" t="n">
         <v>188.5271179775079</v>
       </c>
       <c r="V40" t="n">
-        <v>154.4529230957231</v>
+        <v>154.452923095723</v>
       </c>
       <c r="W40" t="n">
-        <v>188.8382781084861</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X40" t="n">
         <v>128.0249351609322</v>
@@ -3749,7 +3749,7 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F41" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G41" t="n">
         <v>313.2370054253485</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>11.5030415600709</v>
+        <v>11.50304156007087</v>
       </c>
       <c r="T41" t="n">
         <v>106.2332499115152</v>
@@ -3797,13 +3797,13 @@
         <v>153.310451730797</v>
       </c>
       <c r="V41" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W41" t="n">
-        <v>251.5562484893081</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X41" t="n">
-        <v>272.0463804503641</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y41" t="n">
         <v>288.5532184279487</v>
@@ -3885,7 +3885,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>205.6826957773041</v>
       </c>
     </row>
     <row r="43">
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>82.14725995383236</v>
+        <v>82.14725995383233</v>
       </c>
       <c r="C43" t="n">
-        <v>69.5621008705229</v>
+        <v>69.56210087052287</v>
       </c>
       <c r="D43" t="n">
-        <v>50.93075279010742</v>
+        <v>50.93075279010739</v>
       </c>
       <c r="E43" t="n">
-        <v>48.74924241846423</v>
+        <v>48.74924241846421</v>
       </c>
       <c r="F43" t="n">
-        <v>47.73632779482631</v>
+        <v>47.73632779482628</v>
       </c>
       <c r="G43" t="n">
-        <v>68.34108803092329</v>
+        <v>68.34108803092326</v>
       </c>
       <c r="H43" t="n">
-        <v>47.07029468621585</v>
+        <v>47.07029468621582</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>92.08430510333696</v>
+        <v>92.08430510333693</v>
       </c>
       <c r="T43" t="n">
-        <v>121.8642290480643</v>
+        <v>121.8642290480642</v>
       </c>
       <c r="U43" t="n">
         <v>188.5271179775079</v>
       </c>
       <c r="V43" t="n">
-        <v>154.4529230957231</v>
+        <v>154.452923095723</v>
       </c>
       <c r="W43" t="n">
-        <v>188.8382781084861</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X43" t="n">
         <v>128.0249351609322</v>
       </c>
       <c r="Y43" t="n">
-        <v>120.8999331239899</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
     <row r="44">
@@ -3986,7 +3986,7 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F44" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G44" t="n">
         <v>313.2370054253485</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>11.5030415600709</v>
+        <v>11.50304156007087</v>
       </c>
       <c r="T44" t="n">
         <v>106.2332499115152</v>
@@ -4034,13 +4034,13 @@
         <v>153.310451730797</v>
       </c>
       <c r="V44" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W44" t="n">
-        <v>251.5562484893081</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X44" t="n">
-        <v>272.0463804503641</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y44" t="n">
         <v>288.5532184279487</v>
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>82.14725995383236</v>
+        <v>82.14725995383233</v>
       </c>
       <c r="C46" t="n">
-        <v>69.5621008705229</v>
+        <v>69.56210087052287</v>
       </c>
       <c r="D46" t="n">
-        <v>50.93075279010742</v>
+        <v>50.93075279010739</v>
       </c>
       <c r="E46" t="n">
-        <v>48.74924241846423</v>
+        <v>48.74924241846421</v>
       </c>
       <c r="F46" t="n">
-        <v>47.73632779482631</v>
+        <v>47.73632779482628</v>
       </c>
       <c r="G46" t="n">
-        <v>68.34108803092329</v>
+        <v>68.34108803092326</v>
       </c>
       <c r="H46" t="n">
-        <v>47.07029468621585</v>
+        <v>47.07029468621582</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>92.08430510333696</v>
+        <v>92.08430510333693</v>
       </c>
       <c r="T46" t="n">
-        <v>121.8642290480643</v>
+        <v>121.8642290480642</v>
       </c>
       <c r="U46" t="n">
         <v>188.5271179775079</v>
       </c>
       <c r="V46" t="n">
-        <v>154.4529230957231</v>
+        <v>154.452923095723</v>
       </c>
       <c r="W46" t="n">
-        <v>188.8382781084861</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X46" t="n">
         <v>128.0249351609322</v>
       </c>
       <c r="Y46" t="n">
-        <v>120.8999331239899</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
   </sheetData>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1217.975585749197</v>
+        <v>1002.124920105764</v>
       </c>
       <c r="C11" t="n">
-        <v>1217.975585749197</v>
+        <v>660.6359311384579</v>
       </c>
       <c r="D11" t="n">
-        <v>1217.975585749197</v>
+        <v>329.843760504813</v>
       </c>
       <c r="E11" t="n">
-        <v>859.6608611240586</v>
+        <v>329.843760504813</v>
       </c>
       <c r="F11" t="n">
-        <v>476.1484843075566</v>
+        <v>329.843760504813</v>
       </c>
       <c r="G11" t="n">
-        <v>88.06195060272651</v>
+        <v>329.843760504813</v>
       </c>
       <c r="H11" t="n">
-        <v>88.06195060272651</v>
+        <v>54.73993657745634</v>
       </c>
       <c r="I11" t="n">
         <v>54.73993657745634</v>
       </c>
       <c r="J11" t="n">
-        <v>203.0572188700526</v>
+        <v>203.0572188700535</v>
       </c>
       <c r="K11" t="n">
-        <v>476.0848959834871</v>
+        <v>476.084895983488</v>
       </c>
       <c r="L11" t="n">
-        <v>851.7016340593314</v>
+        <v>851.7016340593323</v>
       </c>
       <c r="M11" t="n">
-        <v>1301.317066210022</v>
+        <v>1301.317066210023</v>
       </c>
       <c r="N11" t="n">
-        <v>1762.821554490206</v>
+        <v>1762.821554490207</v>
       </c>
       <c r="O11" t="n">
-        <v>2185.271894799187</v>
+        <v>2185.271894799188</v>
       </c>
       <c r="P11" t="n">
-        <v>2511.322485659898</v>
+        <v>2511.322485659899</v>
       </c>
       <c r="Q11" t="n">
-        <v>2708.000154089591</v>
+        <v>2708.00015408959</v>
       </c>
       <c r="R11" t="n">
         <v>2736.996828872817</v>
       </c>
       <c r="S11" t="n">
-        <v>2643.068240794199</v>
+        <v>2698.793753154934</v>
       </c>
       <c r="T11" t="n">
-        <v>2462.429501709891</v>
+        <v>2698.793753154934</v>
       </c>
       <c r="U11" t="n">
-        <v>2236.333544034999</v>
+        <v>2698.793753154934</v>
       </c>
       <c r="V11" t="n">
-        <v>1939.76770184292</v>
+        <v>2395.204393784469</v>
       </c>
       <c r="W11" t="n">
-        <v>1939.76770184292</v>
+        <v>2069.909266487461</v>
       </c>
       <c r="X11" t="n">
-        <v>1939.76770184292</v>
+        <v>1723.917036199486</v>
       </c>
       <c r="Y11" t="n">
-        <v>1577.101897840213</v>
+        <v>1361.25123219678</v>
       </c>
     </row>
     <row r="12">
@@ -5097,13 +5097,13 @@
         <v>749.2201467945116</v>
       </c>
       <c r="C12" t="n">
-        <v>602.2406454864901</v>
+        <v>602.2406454864902</v>
       </c>
       <c r="D12" t="n">
         <v>480.7797637983444</v>
       </c>
       <c r="E12" t="n">
-        <v>349.0158367659947</v>
+        <v>349.0158367659945</v>
       </c>
       <c r="F12" t="n">
         <v>229.9548067659852</v>
@@ -5112,25 +5112,25 @@
         <v>120.8043394063966</v>
       </c>
       <c r="H12" t="n">
-        <v>55.25627497343278</v>
+        <v>55.25627497343273</v>
       </c>
       <c r="I12" t="n">
         <v>54.73993657745634</v>
       </c>
       <c r="J12" t="n">
-        <v>124.2588468788306</v>
+        <v>124.2588468788301</v>
       </c>
       <c r="K12" t="n">
-        <v>321.2325621179229</v>
+        <v>321.2325621179228</v>
       </c>
       <c r="L12" t="n">
-        <v>632.4105714782888</v>
+        <v>632.4105714782887</v>
       </c>
       <c r="M12" t="n">
-        <v>1014.897499255613</v>
+        <v>1014.897499255612</v>
       </c>
       <c r="N12" t="n">
-        <v>1421.916362801575</v>
+        <v>1421.916362801574</v>
       </c>
       <c r="O12" t="n">
         <v>1772.039310158032</v>
@@ -5157,7 +5157,7 @@
         <v>1477.390527620846</v>
       </c>
       <c r="W12" t="n">
-        <v>1250.626698865749</v>
+        <v>1250.62669886575</v>
       </c>
       <c r="X12" t="n">
         <v>1070.248726633322</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>686.325226644565</v>
+        <v>699.149722500317</v>
       </c>
       <c r="C13" t="n">
-        <v>544.8625716897636</v>
+        <v>557.6870675455157</v>
       </c>
       <c r="D13" t="n">
-        <v>422.2194602505338</v>
+        <v>435.0439561062855</v>
       </c>
       <c r="E13" t="n">
-        <v>422.2194602505338</v>
+        <v>314.604390496998</v>
       </c>
       <c r="F13" t="n">
-        <v>302.803040725729</v>
+        <v>195.187970972193</v>
       </c>
       <c r="G13" t="n">
-        <v>162.3550063309924</v>
+        <v>54.73993657745634</v>
       </c>
       <c r="H13" t="n">
         <v>54.73993657745634</v>
@@ -5200,49 +5200,49 @@
         <v>111.6331956007378</v>
       </c>
       <c r="K13" t="n">
-        <v>317.6409267557602</v>
+        <v>317.6409267557601</v>
       </c>
       <c r="L13" t="n">
         <v>629.2560964975311</v>
       </c>
       <c r="M13" t="n">
-        <v>966.735988970785</v>
+        <v>966.7359889707848</v>
       </c>
       <c r="N13" t="n">
         <v>1302.266239560505</v>
       </c>
       <c r="O13" t="n">
-        <v>1598.221979945367</v>
+        <v>1598.221979945366</v>
       </c>
       <c r="P13" t="n">
-        <v>1831.828833089273</v>
+        <v>1831.828833089272</v>
       </c>
       <c r="Q13" t="n">
-        <v>1918.415110128974</v>
+        <v>1918.415110128973</v>
       </c>
       <c r="R13" t="n">
-        <v>1918.415110128974</v>
+        <v>1918.415110128973</v>
       </c>
       <c r="S13" t="n">
-        <v>1918.415110128974</v>
+        <v>1750.390960760816</v>
       </c>
       <c r="T13" t="n">
-        <v>1723.187467226116</v>
+        <v>1555.163317857959</v>
       </c>
       <c r="U13" t="n">
-        <v>1461.546197829816</v>
+        <v>1555.163317857959</v>
       </c>
       <c r="V13" t="n">
-        <v>1234.335237597035</v>
+        <v>1327.952357625177</v>
       </c>
       <c r="W13" t="n">
-        <v>1234.335237597035</v>
+        <v>1066.008715561322</v>
       </c>
       <c r="X13" t="n">
-        <v>1033.819214672124</v>
+        <v>1046.643710527876</v>
       </c>
       <c r="Y13" t="n">
-        <v>840.500163501699</v>
+        <v>853.3246593574511</v>
       </c>
     </row>
     <row r="14">
@@ -5252,52 +5252,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1546.119848060202</v>
+        <v>1882.742670444099</v>
       </c>
       <c r="C14" t="n">
-        <v>1204.630859092895</v>
+        <v>1541.253681476792</v>
       </c>
       <c r="D14" t="n">
-        <v>873.8386884592502</v>
+        <v>1210.461510843148</v>
       </c>
       <c r="E14" t="n">
-        <v>873.8386884592502</v>
+        <v>852.1467862180089</v>
       </c>
       <c r="F14" t="n">
-        <v>490.3263116427482</v>
+        <v>468.634409401507</v>
       </c>
       <c r="G14" t="n">
-        <v>351.1455596377364</v>
+        <v>81.03548721960908</v>
       </c>
       <c r="H14" t="n">
-        <v>81.03548721960911</v>
+        <v>81.03548721960908</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810566</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
         <v>3325.605821609171</v>
@@ -5312,16 +5312,16 @@
         <v>3242.788681109371</v>
       </c>
       <c r="V14" t="n">
-        <v>2939.199321738906</v>
+        <v>3242.788681109371</v>
       </c>
       <c r="W14" t="n">
-        <v>2613.904194441898</v>
+        <v>2917.493553812363</v>
       </c>
       <c r="X14" t="n">
-        <v>2267.911964153924</v>
+        <v>2604.534786537821</v>
       </c>
       <c r="Y14" t="n">
-        <v>1905.246160151218</v>
+        <v>2241.868982535115</v>
       </c>
     </row>
     <row r="15">
@@ -5352,10 +5352,10 @@
         <v>85.51940803064525</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
         <v>398.4535849031479</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>423.0526611428583</v>
+        <v>710.7031766124826</v>
       </c>
       <c r="C16" t="n">
-        <v>281.5900061880567</v>
+        <v>569.2405216576813</v>
       </c>
       <c r="D16" t="n">
-        <v>281.5900061880567</v>
+        <v>446.597410218451</v>
       </c>
       <c r="E16" t="n">
-        <v>281.5900061880567</v>
+        <v>326.1578446091635</v>
       </c>
       <c r="F16" t="n">
-        <v>281.5900061880567</v>
+        <v>206.7414250843589</v>
       </c>
       <c r="G16" t="n">
-        <v>141.3606975358813</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H16" t="n">
-        <v>136.3642656407325</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
         <v>138.5615536455598</v>
       </c>
       <c r="K16" t="n">
-        <v>369.4755413608769</v>
+        <v>369.4755413608766</v>
       </c>
       <c r="L16" t="n">
-        <v>712.9621445758139</v>
+        <v>712.9621445758136</v>
       </c>
       <c r="M16" t="n">
-        <v>1084.045994941804</v>
+        <v>1084.045994941803</v>
       </c>
       <c r="N16" t="n">
         <v>1452.381176414109</v>
@@ -5458,28 +5458,28 @@
         <v>2142.708986220019</v>
       </c>
       <c r="R16" t="n">
-        <v>2080.352056950652</v>
+        <v>2106.373233519025</v>
       </c>
       <c r="S16" t="n">
-        <v>1916.139700750584</v>
+        <v>1942.160877318958</v>
       </c>
       <c r="T16" t="n">
-        <v>1721.846613293216</v>
+        <v>1747.867789861589</v>
       </c>
       <c r="U16" t="n">
-        <v>1460.217274391965</v>
+        <v>1747.867789861589</v>
       </c>
       <c r="V16" t="n">
-        <v>1233.006314159184</v>
+        <v>1520.656829628808</v>
       </c>
       <c r="W16" t="n">
-        <v>971.0626720953285</v>
+        <v>1258.713187564953</v>
       </c>
       <c r="X16" t="n">
-        <v>770.5466491704168</v>
+        <v>1058.197164640041</v>
       </c>
       <c r="Y16" t="n">
-        <v>577.2275979999923</v>
+        <v>864.8781134696167</v>
       </c>
     </row>
     <row r="17">
@@ -5489,64 +5489,64 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C17" t="n">
-        <v>1440.850850103806</v>
+        <v>1440.850850103805</v>
       </c>
       <c r="D17" t="n">
         <v>1181.256586070898</v>
       </c>
       <c r="E17" t="n">
-        <v>894.1397680464975</v>
+        <v>894.139768046497</v>
       </c>
       <c r="F17" t="n">
-        <v>581.8252978307331</v>
+        <v>581.8252978307328</v>
       </c>
       <c r="G17" t="n">
         <v>265.4242822495729</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3313.98658771011</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T17" t="n">
-        <v>3206.680274668176</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U17" t="n">
-        <v>3051.821232515854</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V17" t="n">
         <v>2819.429779746128</v>
@@ -5555,10 +5555,10 @@
         <v>2565.332559049857</v>
       </c>
       <c r="X17" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y17" t="n">
-        <v>1999.070337960653</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="18">
@@ -5583,16 +5583,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
         <v>398.4535849031479</v>
@@ -5647,52 +5647,52 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>402.259395817093</v>
+        <v>402.2593958170929</v>
       </c>
       <c r="C19" t="n">
-        <v>331.9946474630294</v>
+        <v>331.9946474630293</v>
       </c>
       <c r="D19" t="n">
-        <v>280.549442624537</v>
+        <v>280.5494426245369</v>
       </c>
       <c r="E19" t="n">
         <v>231.3077836159871</v>
       </c>
       <c r="F19" t="n">
-        <v>183.0892706919201</v>
+        <v>183.08927069192</v>
       </c>
       <c r="G19" t="n">
-        <v>114.0578686404824</v>
+        <v>114.0578686404823</v>
       </c>
       <c r="H19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I19" t="n">
-        <v>67.83109325226752</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
-        <v>79.65384678970698</v>
+        <v>163.8840378413038</v>
       </c>
       <c r="K19" t="n">
-        <v>253.5298502264977</v>
+        <v>262.1948921089742</v>
       </c>
       <c r="L19" t="n">
-        <v>505.9475671746787</v>
+        <v>514.6126090571553</v>
       </c>
       <c r="M19" t="n">
-        <v>770.0879214997003</v>
+        <v>682.0450903563531</v>
       </c>
       <c r="N19" t="n">
-        <v>1038.104631555372</v>
+        <v>950.0618004120244</v>
       </c>
       <c r="O19" t="n">
-        <v>1272.730853799385</v>
+        <v>1184.688022656038</v>
       </c>
       <c r="P19" t="n">
-        <v>1371.681856552144</v>
+        <v>1380.34689843462</v>
       </c>
       <c r="Q19" t="n">
-        <v>1481.310496936508</v>
+        <v>1489.975538818985</v>
       </c>
       <c r="R19" t="n">
         <v>1489.975538818985</v>
@@ -5707,16 +5707,16 @@
         <v>1083.434476062511</v>
       </c>
       <c r="V19" t="n">
-        <v>927.4214224304676</v>
+        <v>927.4214224304675</v>
       </c>
       <c r="W19" t="n">
-        <v>736.6756869673503</v>
+        <v>736.6756869673502</v>
       </c>
       <c r="X19" t="n">
-        <v>607.3575706431762</v>
+        <v>607.3575706431761</v>
       </c>
       <c r="Y19" t="n">
-        <v>485.2364260734894</v>
+        <v>485.2364260734893</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C20" t="n">
-        <v>1440.850850103806</v>
+        <v>1440.850850103805</v>
       </c>
       <c r="D20" t="n">
         <v>1181.256586070898</v>
       </c>
       <c r="E20" t="n">
-        <v>894.1397680464975</v>
+        <v>894.1397680464968</v>
       </c>
       <c r="F20" t="n">
-        <v>581.8252978307331</v>
+        <v>581.8252978307326</v>
       </c>
       <c r="G20" t="n">
         <v>265.4242822495729</v>
@@ -5750,16 +5750,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
         <v>2120.555556060171</v>
@@ -5771,7 +5771,7 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
         <v>3325.605821609171</v>
@@ -5786,16 +5786,16 @@
         <v>3051.821232515855</v>
       </c>
       <c r="V20" t="n">
-        <v>2819.429779746129</v>
+        <v>2819.429779746128</v>
       </c>
       <c r="W20" t="n">
-        <v>2565.332559049858</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X20" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y20" t="n">
-        <v>1999.070337960653</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="21">
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>402.259395817093</v>
+        <v>402.2593958170929</v>
       </c>
       <c r="C22" t="n">
-        <v>331.9946474630294</v>
+        <v>331.9946474630293</v>
       </c>
       <c r="D22" t="n">
-        <v>280.549442624537</v>
+        <v>280.5494426245369</v>
       </c>
       <c r="E22" t="n">
         <v>231.3077836159871</v>
       </c>
       <c r="F22" t="n">
-        <v>183.0892706919201</v>
+        <v>183.08927069192</v>
       </c>
       <c r="G22" t="n">
         <v>114.0578686404823</v>
@@ -5908,28 +5908,28 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
-        <v>155.2189959588273</v>
+        <v>175.0427429954467</v>
       </c>
       <c r="K22" t="n">
-        <v>350.2377232523215</v>
+        <v>358.9027651347981</v>
       </c>
       <c r="L22" t="n">
-        <v>602.6554402005025</v>
+        <v>611.3204820829792</v>
       </c>
       <c r="M22" t="n">
-        <v>770.0879214997003</v>
+        <v>875.4608364080009</v>
       </c>
       <c r="N22" t="n">
-        <v>1038.104631555372</v>
+        <v>1143.477546463672</v>
       </c>
       <c r="O22" t="n">
-        <v>1176.022980773561</v>
+        <v>1281.395895681862</v>
       </c>
       <c r="P22" t="n">
-        <v>1371.681856552144</v>
+        <v>1477.054771460444</v>
       </c>
       <c r="Q22" t="n">
-        <v>1481.310496936508</v>
+        <v>1489.975538818985</v>
       </c>
       <c r="R22" t="n">
         <v>1489.975538818985</v>
@@ -5944,16 +5944,16 @@
         <v>1083.434476062511</v>
       </c>
       <c r="V22" t="n">
-        <v>927.4214224304676</v>
+        <v>927.4214224304675</v>
       </c>
       <c r="W22" t="n">
-        <v>736.6756869673503</v>
+        <v>736.6756869673502</v>
       </c>
       <c r="X22" t="n">
-        <v>607.3575706431762</v>
+        <v>607.3575706431761</v>
       </c>
       <c r="Y22" t="n">
-        <v>485.2364260734894</v>
+        <v>485.2364260734893</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470374</v>
       </c>
       <c r="C23" t="n">
         <v>1440.850850103805</v>
@@ -5972,37 +5972,37 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E23" t="n">
-        <v>894.1397680464966</v>
+        <v>894.1397680464975</v>
       </c>
       <c r="F23" t="n">
-        <v>581.8252978307323</v>
+        <v>581.8252978307332</v>
       </c>
       <c r="G23" t="n">
         <v>265.4242822495729</v>
       </c>
       <c r="H23" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P23" t="n">
         <v>3018.302393296687</v>
@@ -6014,22 +6014,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S23" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.98658771011</v>
       </c>
       <c r="T23" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668176</v>
       </c>
       <c r="U23" t="n">
         <v>3051.821232515855</v>
       </c>
       <c r="V23" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746128</v>
       </c>
       <c r="W23" t="n">
-        <v>2565.332559049856</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X23" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362621</v>
       </c>
       <c r="Y23" t="n">
         <v>1999.070337960652</v>
@@ -6057,16 +6057,16 @@
         <v>312.3844025601596</v>
       </c>
       <c r="G24" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K24" t="n">
         <v>398.4535849031479</v>
@@ -6121,49 +6121,49 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>402.259395817093</v>
+        <v>402.2593958170928</v>
       </c>
       <c r="C25" t="n">
-        <v>331.9946474630294</v>
+        <v>331.9946474630292</v>
       </c>
       <c r="D25" t="n">
-        <v>280.549442624537</v>
+        <v>280.5494426245368</v>
       </c>
       <c r="E25" t="n">
         <v>231.3077836159871</v>
       </c>
       <c r="F25" t="n">
-        <v>183.0892706919201</v>
+        <v>183.08927069192</v>
       </c>
       <c r="G25" t="n">
         <v>114.0578686404823</v>
       </c>
       <c r="H25" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I25" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J25" t="n">
         <v>175.0427429954467</v>
       </c>
       <c r="K25" t="n">
-        <v>370.0614702889409</v>
+        <v>370.061470288941</v>
       </c>
       <c r="L25" t="n">
-        <v>525.7713142112982</v>
+        <v>622.4791872371221</v>
       </c>
       <c r="M25" t="n">
-        <v>778.7529633821773</v>
+        <v>886.6195415621437</v>
       </c>
       <c r="N25" t="n">
-        <v>950.0618004120248</v>
+        <v>1143.477546463672</v>
       </c>
       <c r="O25" t="n">
-        <v>1184.688022656038</v>
+        <v>1378.103768707685</v>
       </c>
       <c r="P25" t="n">
-        <v>1380.346898434621</v>
+        <v>1477.054771460444</v>
       </c>
       <c r="Q25" t="n">
         <v>1489.975538818985</v>
@@ -6172,7 +6172,7 @@
         <v>1489.975538818985</v>
       </c>
       <c r="S25" t="n">
-        <v>1396.961089219655</v>
+        <v>1396.961089219654</v>
       </c>
       <c r="T25" t="n">
         <v>1273.865908363024</v>
@@ -6181,16 +6181,16 @@
         <v>1083.434476062511</v>
       </c>
       <c r="V25" t="n">
-        <v>927.4214224304676</v>
+        <v>927.4214224304673</v>
       </c>
       <c r="W25" t="n">
-        <v>736.6756869673503</v>
+        <v>736.67568696735</v>
       </c>
       <c r="X25" t="n">
-        <v>607.3575706431762</v>
+        <v>607.3575706431759</v>
       </c>
       <c r="Y25" t="n">
-        <v>485.2364260734894</v>
+        <v>485.2364260734892</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1883.832679729896</v>
+        <v>1883.832679729895</v>
       </c>
       <c r="C26" t="n">
         <v>1586.068069390221</v>
@@ -6212,64 +6212,64 @@
         <v>984.4099313867018</v>
       </c>
       <c r="F26" t="n">
-        <v>644.6219331978318</v>
+        <v>644.621933197832</v>
       </c>
       <c r="G26" t="n">
-        <v>300.7473896435659</v>
+        <v>300.7473896435658</v>
       </c>
       <c r="H26" t="n">
-        <v>74.36169585307077</v>
+        <v>74.36169585307076</v>
       </c>
       <c r="I26" t="n">
-        <v>102.9816036372571</v>
+        <v>74.36169585307076</v>
       </c>
       <c r="J26" t="n">
-        <v>361.6418028556655</v>
+        <v>333.0218950714792</v>
       </c>
       <c r="K26" t="n">
-        <v>765.242244804895</v>
+        <v>736.6223370207088</v>
       </c>
       <c r="L26" t="n">
-        <v>1286.057526312687</v>
+        <v>1257.437618528501</v>
       </c>
       <c r="M26" t="n">
-        <v>1889.370499243995</v>
+        <v>1860.750591459808</v>
       </c>
       <c r="N26" t="n">
-        <v>2505.93038456216</v>
+        <v>2477.310476777974</v>
       </c>
       <c r="O26" t="n">
-        <v>3016.006997983875</v>
+        <v>2980.282947657311</v>
       </c>
       <c r="P26" t="n">
-        <v>3410.781364341054</v>
+        <v>3375.057314014489</v>
       </c>
       <c r="Q26" t="n">
-        <v>3659.067726096736</v>
+        <v>3659.067726096735</v>
       </c>
       <c r="R26" t="n">
         <v>3718.084792653538</v>
       </c>
       <c r="S26" t="n">
-        <v>3678.992030781371</v>
+        <v>3678.99203078137</v>
       </c>
       <c r="T26" t="n">
-        <v>3544.212189766331</v>
+        <v>3544.21218976633</v>
       </c>
       <c r="U26" t="n">
-        <v>3361.879619640905</v>
+        <v>3361.879619640904</v>
       </c>
       <c r="V26" t="n">
         <v>3102.014638898072</v>
       </c>
       <c r="W26" t="n">
-        <v>2820.443890228696</v>
+        <v>2820.443890228695</v>
       </c>
       <c r="X26" t="n">
-        <v>2518.176038568354</v>
+        <v>2518.176038568353</v>
       </c>
       <c r="Y26" t="n">
-        <v>2199.23461319328</v>
+        <v>2199.234613193279</v>
       </c>
     </row>
     <row r="27">
@@ -6279,16 +6279,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>949.3934339019959</v>
+        <v>949.393433901996</v>
       </c>
       <c r="C27" t="n">
-        <v>774.9404046208689</v>
+        <v>774.940404620869</v>
       </c>
       <c r="D27" t="n">
-        <v>626.0059949596176</v>
+        <v>626.0059949596177</v>
       </c>
       <c r="E27" t="n">
-        <v>466.7685399541621</v>
+        <v>466.7685399541622</v>
       </c>
       <c r="F27" t="n">
         <v>320.2339819810472</v>
@@ -6300,7 +6300,7 @@
         <v>93.3689874515328</v>
       </c>
       <c r="I27" t="n">
-        <v>74.36169585307077</v>
+        <v>74.36169585307076</v>
       </c>
       <c r="J27" t="n">
         <v>168.0389653436881</v>
@@ -6358,61 +6358,61 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>601.0779136575309</v>
+        <v>601.0779136575308</v>
       </c>
       <c r="C28" t="n">
-        <v>503.3396373303617</v>
+        <v>503.3396373303615</v>
       </c>
       <c r="D28" t="n">
-        <v>424.4209045187637</v>
+        <v>424.4209045187636</v>
       </c>
       <c r="E28" t="n">
-        <v>347.7057175371083</v>
+        <v>347.7057175371082</v>
       </c>
       <c r="F28" t="n">
-        <v>272.0136766399356</v>
+        <v>272.0136766399355</v>
       </c>
       <c r="G28" t="n">
-        <v>175.5087466153923</v>
+        <v>175.5087466153922</v>
       </c>
       <c r="H28" t="n">
         <v>100.4894664339877</v>
       </c>
       <c r="I28" t="n">
-        <v>74.36169585307077</v>
+        <v>74.36169585307076</v>
       </c>
       <c r="J28" t="n">
-        <v>155.9655176498932</v>
+        <v>155.9655176498933</v>
       </c>
       <c r="K28" t="n">
-        <v>324.0574401769466</v>
+        <v>429.7337688581526</v>
       </c>
       <c r="L28" t="n">
-        <v>549.5483523586869</v>
+        <v>791.4320256556774</v>
       </c>
       <c r="M28" t="n">
-        <v>895.480812310893</v>
+        <v>1028.645575214258</v>
       </c>
       <c r="N28" t="n">
-        <v>1306.670257276141</v>
+        <v>1269.735480503489</v>
       </c>
       <c r="O28" t="n">
-        <v>1675.780924455937</v>
+        <v>1477.434897981062</v>
       </c>
       <c r="P28" t="n">
-        <v>1844.512995468079</v>
+        <v>1779.823466674104</v>
       </c>
       <c r="Q28" t="n">
-        <v>1927.214831086003</v>
+        <v>1927.214831086002</v>
       </c>
       <c r="R28" t="n">
-        <v>1908.582280444268</v>
+        <v>1908.582280444267</v>
       </c>
       <c r="S28" t="n">
-        <v>1788.094302871832</v>
+        <v>1788.094302871831</v>
       </c>
       <c r="T28" t="n">
-        <v>1637.525594042096</v>
+        <v>1637.525594042095</v>
       </c>
       <c r="U28" t="n">
         <v>1419.620633768477</v>
@@ -6424,10 +6424,10 @@
         <v>1017.914788727105</v>
       </c>
       <c r="X28" t="n">
-        <v>861.1231444298253</v>
+        <v>861.1231444298251</v>
       </c>
       <c r="Y28" t="n">
-        <v>711.5284718870329</v>
+        <v>711.5284718870328</v>
       </c>
     </row>
     <row r="29">
@@ -6446,58 +6446,58 @@
         <v>1299.000277384208</v>
       </c>
       <c r="E29" t="n">
-        <v>984.4099313867013</v>
+        <v>984.4099313867014</v>
       </c>
       <c r="F29" t="n">
-        <v>644.6219331978314</v>
+        <v>644.6219331978316</v>
       </c>
       <c r="G29" t="n">
         <v>300.7473896435658</v>
       </c>
       <c r="H29" t="n">
-        <v>74.36169585307076</v>
+        <v>74.36169585307073</v>
       </c>
       <c r="I29" t="n">
         <v>102.9816036372571</v>
       </c>
       <c r="J29" t="n">
-        <v>361.6418028556655</v>
+        <v>361.6418028556656</v>
       </c>
       <c r="K29" t="n">
-        <v>765.242244804895</v>
+        <v>765.2422448048951</v>
       </c>
       <c r="L29" t="n">
-        <v>1286.057526312687</v>
+        <v>1223.38060059568</v>
       </c>
       <c r="M29" t="n">
-        <v>1889.370499243995</v>
+        <v>1756.912505267605</v>
       </c>
       <c r="N29" t="n">
-        <v>2505.93038456216</v>
+        <v>2303.691322326387</v>
       </c>
       <c r="O29" t="n">
-        <v>3016.006997983874</v>
+        <v>2806.663793205724</v>
       </c>
       <c r="P29" t="n">
-        <v>3410.781364341053</v>
+        <v>3271.219227822286</v>
       </c>
       <c r="Q29" t="n">
-        <v>3659.067726096735</v>
+        <v>3589.286657837351</v>
       </c>
       <c r="R29" t="n">
-        <v>3718.084792653538</v>
+        <v>3718.084792653537</v>
       </c>
       <c r="S29" t="n">
         <v>3678.99203078137</v>
       </c>
       <c r="T29" t="n">
-        <v>3544.21218976633</v>
+        <v>3544.212189766329</v>
       </c>
       <c r="U29" t="n">
         <v>3361.879619640904</v>
       </c>
       <c r="V29" t="n">
-        <v>3102.014638898072</v>
+        <v>3102.014638898071</v>
       </c>
       <c r="W29" t="n">
         <v>2820.443890228695</v>
@@ -6516,37 +6516,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>949.393433901996</v>
+        <v>949.3934339019959</v>
       </c>
       <c r="C30" t="n">
-        <v>774.940404620869</v>
+        <v>774.9404046208689</v>
       </c>
       <c r="D30" t="n">
-        <v>626.0059949596177</v>
+        <v>626.0059949596176</v>
       </c>
       <c r="E30" t="n">
-        <v>466.7685399541622</v>
+        <v>466.7685399541621</v>
       </c>
       <c r="F30" t="n">
-        <v>320.2339819810472</v>
+        <v>320.2339819810471</v>
       </c>
       <c r="G30" t="n">
-        <v>183.8708818136653</v>
+        <v>183.8708818136652</v>
       </c>
       <c r="H30" t="n">
-        <v>93.3689874515328</v>
+        <v>93.36898745153277</v>
       </c>
       <c r="I30" t="n">
-        <v>74.36169585307076</v>
+        <v>74.36169585307073</v>
       </c>
       <c r="J30" t="n">
         <v>168.0389653436881</v>
       </c>
       <c r="K30" t="n">
-        <v>406.3031643240353</v>
+        <v>406.3031643240352</v>
       </c>
       <c r="L30" t="n">
-        <v>773.0013246367007</v>
+        <v>773.0013246367006</v>
       </c>
       <c r="M30" t="n">
         <v>1220.277649859016</v>
@@ -6595,61 +6595,61 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>601.0779136575309</v>
+        <v>601.0779136575306</v>
       </c>
       <c r="C31" t="n">
-        <v>503.3396373303617</v>
+        <v>503.3396373303614</v>
       </c>
       <c r="D31" t="n">
-        <v>424.4209045187637</v>
+        <v>424.4209045187635</v>
       </c>
       <c r="E31" t="n">
-        <v>347.7057175371082</v>
+        <v>347.7057175371081</v>
       </c>
       <c r="F31" t="n">
-        <v>272.0136766399356</v>
+        <v>272.0136766399354</v>
       </c>
       <c r="G31" t="n">
-        <v>175.5087466153922</v>
+        <v>175.5087466153921</v>
       </c>
       <c r="H31" t="n">
-        <v>100.4894664339877</v>
+        <v>100.4894664339876</v>
       </c>
       <c r="I31" t="n">
-        <v>74.36169585307076</v>
+        <v>74.36169585307073</v>
       </c>
       <c r="J31" t="n">
-        <v>155.9655176498932</v>
+        <v>189.2653965593893</v>
       </c>
       <c r="K31" t="n">
-        <v>324.0574401769466</v>
+        <v>463.0336477676487</v>
       </c>
       <c r="L31" t="n">
-        <v>710.3983068848257</v>
+        <v>849.3745144755279</v>
       </c>
       <c r="M31" t="n">
-        <v>1124.336420743758</v>
+        <v>1162.302072895159</v>
       </c>
       <c r="N31" t="n">
-        <v>1468.081506978364</v>
+        <v>1403.391978184389</v>
       </c>
       <c r="O31" t="n">
-        <v>1675.780924455937</v>
+        <v>1611.091395661962</v>
       </c>
       <c r="P31" t="n">
-        <v>1844.512995468079</v>
+        <v>1779.823466674104</v>
       </c>
       <c r="Q31" t="n">
-        <v>1927.214831086003</v>
+        <v>1927.214831086002</v>
       </c>
       <c r="R31" t="n">
-        <v>1908.582280444268</v>
+        <v>1908.582280444267</v>
       </c>
       <c r="S31" t="n">
-        <v>1788.094302871832</v>
+        <v>1788.094302871831</v>
       </c>
       <c r="T31" t="n">
-        <v>1637.525594042096</v>
+        <v>1637.525594042095</v>
       </c>
       <c r="U31" t="n">
         <v>1419.620633768477</v>
@@ -6661,10 +6661,10 @@
         <v>1017.914788727105</v>
       </c>
       <c r="X31" t="n">
-        <v>861.1231444298253</v>
+        <v>861.1231444298251</v>
       </c>
       <c r="Y31" t="n">
-        <v>711.5284718870329</v>
+        <v>711.5284718870327</v>
       </c>
     </row>
     <row r="32">
@@ -6683,58 +6683,58 @@
         <v>1299.000277384208</v>
       </c>
       <c r="E32" t="n">
-        <v>984.4099313867016</v>
+        <v>984.4099313867018</v>
       </c>
       <c r="F32" t="n">
-        <v>644.6219331978317</v>
+        <v>644.6219331978318</v>
       </c>
       <c r="G32" t="n">
         <v>300.7473896435658</v>
       </c>
       <c r="H32" t="n">
-        <v>74.36169585307076</v>
+        <v>74.36169585307073</v>
       </c>
       <c r="I32" t="n">
-        <v>102.9816036372571</v>
+        <v>74.36169585307073</v>
       </c>
       <c r="J32" t="n">
-        <v>361.6418028556655</v>
+        <v>298.9648771386586</v>
       </c>
       <c r="K32" t="n">
-        <v>702.5653190878893</v>
+        <v>702.5653190878883</v>
       </c>
       <c r="L32" t="n">
-        <v>1223.380600595681</v>
+        <v>1223.38060059568</v>
       </c>
       <c r="M32" t="n">
-        <v>1756.912505267606</v>
+        <v>1756.912505267605</v>
       </c>
       <c r="N32" t="n">
-        <v>2373.472390585771</v>
+        <v>2303.691322326387</v>
       </c>
       <c r="O32" t="n">
-        <v>2946.225929724491</v>
+        <v>2876.444861465107</v>
       </c>
       <c r="P32" t="n">
-        <v>3410.781364341053</v>
+        <v>3341.000296081669</v>
       </c>
       <c r="Q32" t="n">
-        <v>3659.067726096735</v>
+        <v>3659.067726096734</v>
       </c>
       <c r="R32" t="n">
-        <v>3718.084792653538</v>
+        <v>3718.084792653537</v>
       </c>
       <c r="S32" t="n">
         <v>3678.99203078137</v>
       </c>
       <c r="T32" t="n">
-        <v>3544.212189766331</v>
+        <v>3544.21218976633</v>
       </c>
       <c r="U32" t="n">
         <v>3361.879619640904</v>
       </c>
       <c r="V32" t="n">
-        <v>3102.014638898072</v>
+        <v>3102.014638898071</v>
       </c>
       <c r="W32" t="n">
         <v>2820.443890228695</v>
@@ -6753,37 +6753,37 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>949.3934339019959</v>
+        <v>949.3934339019956</v>
       </c>
       <c r="C33" t="n">
-        <v>774.9404046208689</v>
+        <v>774.9404046208687</v>
       </c>
       <c r="D33" t="n">
-        <v>626.0059949596176</v>
+        <v>626.0059949596175</v>
       </c>
       <c r="E33" t="n">
-        <v>466.7685399541621</v>
+        <v>466.768539954162</v>
       </c>
       <c r="F33" t="n">
-        <v>320.2339819810471</v>
+        <v>320.233981981047</v>
       </c>
       <c r="G33" t="n">
-        <v>183.8708818136652</v>
+        <v>183.8708818136657</v>
       </c>
       <c r="H33" t="n">
-        <v>93.3689874515328</v>
+        <v>93.36898745153314</v>
       </c>
       <c r="I33" t="n">
-        <v>74.36169585307076</v>
+        <v>74.36169585307073</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0389653436881</v>
+        <v>168.0389653436879</v>
       </c>
       <c r="K33" t="n">
         <v>406.3031643240353</v>
       </c>
       <c r="L33" t="n">
-        <v>773.0013246367007</v>
+        <v>773.0013246367004</v>
       </c>
       <c r="M33" t="n">
         <v>1220.277649859016</v>
@@ -6816,7 +6816,7 @@
         <v>1787.457926620752</v>
       </c>
       <c r="W33" t="n">
-        <v>1533.220569892551</v>
+        <v>1533.22056989255</v>
       </c>
       <c r="X33" t="n">
         <v>1325.369069687018</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>601.0779136575309</v>
+        <v>601.0779136575304</v>
       </c>
       <c r="C34" t="n">
-        <v>503.3396373303617</v>
+        <v>503.3396373303613</v>
       </c>
       <c r="D34" t="n">
-        <v>424.4209045187637</v>
+        <v>424.4209045187633</v>
       </c>
       <c r="E34" t="n">
-        <v>347.7057175371082</v>
+        <v>347.705717537108</v>
       </c>
       <c r="F34" t="n">
-        <v>272.0136766399356</v>
+        <v>272.0136766399354</v>
       </c>
       <c r="G34" t="n">
-        <v>175.5087466153922</v>
+        <v>175.5087466153921</v>
       </c>
       <c r="H34" t="n">
-        <v>100.4894664339877</v>
+        <v>100.4894664339876</v>
       </c>
       <c r="I34" t="n">
-        <v>74.36169585307076</v>
+        <v>74.36169585307073</v>
       </c>
       <c r="J34" t="n">
-        <v>155.9655176498932</v>
+        <v>155.9655176498933</v>
       </c>
       <c r="K34" t="n">
-        <v>324.0574401769466</v>
+        <v>324.0574401769468</v>
       </c>
       <c r="L34" t="n">
-        <v>694.7103047474288</v>
+        <v>710.3983068848261</v>
       </c>
       <c r="M34" t="n">
-        <v>931.9238543060096</v>
+        <v>947.611856443407</v>
       </c>
       <c r="N34" t="n">
-        <v>1173.01375959524</v>
+        <v>1358.801301408655</v>
       </c>
       <c r="O34" t="n">
-        <v>1542.124426775036</v>
+        <v>1675.780924455936</v>
       </c>
       <c r="P34" t="n">
-        <v>1844.512995468079</v>
+        <v>1844.512995468078</v>
       </c>
       <c r="Q34" t="n">
-        <v>1927.214831086003</v>
+        <v>1927.214831086002</v>
       </c>
       <c r="R34" t="n">
-        <v>1908.582280444268</v>
+        <v>1908.582280444267</v>
       </c>
       <c r="S34" t="n">
-        <v>1788.094302871832</v>
+        <v>1788.094302871831</v>
       </c>
       <c r="T34" t="n">
-        <v>1637.525594042096</v>
+        <v>1637.525594042095</v>
       </c>
       <c r="U34" t="n">
         <v>1419.620633768477</v>
       </c>
       <c r="V34" t="n">
-        <v>1236.134052163328</v>
+        <v>1236.134052163327</v>
       </c>
       <c r="W34" t="n">
-        <v>1017.914788727105</v>
+        <v>1017.914788727104</v>
       </c>
       <c r="X34" t="n">
-        <v>861.1231444298253</v>
+        <v>861.1231444298248</v>
       </c>
       <c r="Y34" t="n">
-        <v>711.5284718870329</v>
+        <v>711.5284718870324</v>
       </c>
     </row>
     <row r="35">
@@ -6926,19 +6926,19 @@
         <v>581.8252978307337</v>
       </c>
       <c r="G35" t="n">
-        <v>265.4242822495729</v>
+        <v>265.4242822495735</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L35" t="n">
         <v>1040.244834329465</v>
@@ -6950,7 +6950,7 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P35" t="n">
         <v>3018.302393296687</v>
@@ -6962,10 +6962,10 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3313.98658771011</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T35" t="n">
-        <v>3206.680274668176</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U35" t="n">
         <v>3051.821232515855</v>
@@ -6980,7 +6980,7 @@
         <v>2290.538235362621</v>
       </c>
       <c r="Y35" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960653</v>
       </c>
     </row>
     <row r="36">
@@ -6990,34 +6990,34 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927785</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064588</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J36" t="n">
         <v>160.1893859228006</v>
       </c>
       <c r="K36" t="n">
-        <v>398.453584903148</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L36" t="n">
         <v>765.1517452158131</v>
@@ -7026,34 +7026,34 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N36" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O36" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q36" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R36" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S36" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T36" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U36" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V36" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W36" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X36" t="n">
         <v>1317.519490266131</v>
@@ -7069,13 +7069,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>402.2593958170925</v>
+        <v>402.2593958170926</v>
       </c>
       <c r="C37" t="n">
-        <v>331.9946474630289</v>
+        <v>331.9946474630291</v>
       </c>
       <c r="D37" t="n">
-        <v>280.5494426245366</v>
+        <v>280.5494426245367</v>
       </c>
       <c r="E37" t="n">
         <v>231.3077836159869</v>
@@ -7087,28 +7087,28 @@
         <v>114.0578686404823</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I37" t="n">
-        <v>67.83109325226764</v>
+        <v>67.83109325226758</v>
       </c>
       <c r="J37" t="n">
-        <v>176.361719815531</v>
+        <v>176.3617198155309</v>
       </c>
       <c r="K37" t="n">
-        <v>371.3804471090253</v>
+        <v>371.3804471090251</v>
       </c>
       <c r="L37" t="n">
-        <v>623.7981640572066</v>
+        <v>623.7981640572062</v>
       </c>
       <c r="M37" t="n">
-        <v>791.2306453564045</v>
+        <v>887.9385183822279</v>
       </c>
       <c r="N37" t="n">
-        <v>962.5394823862521</v>
+        <v>1134.812504581194</v>
       </c>
       <c r="O37" t="n">
-        <v>1197.165704630266</v>
+        <v>1272.730853799384</v>
       </c>
       <c r="P37" t="n">
         <v>1371.681856552143</v>
@@ -7129,16 +7129,16 @@
         <v>1083.43447606251</v>
       </c>
       <c r="V37" t="n">
-        <v>927.4214224304668</v>
+        <v>927.4214224304669</v>
       </c>
       <c r="W37" t="n">
-        <v>736.6756869673495</v>
+        <v>736.6756869673496</v>
       </c>
       <c r="X37" t="n">
-        <v>607.3575706431756</v>
+        <v>607.3575706431757</v>
       </c>
       <c r="Y37" t="n">
-        <v>485.2364260734888</v>
+        <v>485.236426073489</v>
       </c>
     </row>
     <row r="38">
@@ -7151,73 +7151,73 @@
         <v>1711.141932470374</v>
       </c>
       <c r="C38" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103806</v>
       </c>
       <c r="D38" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070899</v>
       </c>
       <c r="E38" t="n">
-        <v>894.1397680464975</v>
+        <v>894.1397680464979</v>
       </c>
       <c r="F38" t="n">
-        <v>581.8252978307332</v>
+        <v>581.8252978307337</v>
       </c>
       <c r="G38" t="n">
-        <v>265.424282249573</v>
+        <v>265.4242822495728</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218377</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O38" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R38" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.98658771011</v>
       </c>
       <c r="T38" t="n">
-        <v>3206.680274668174</v>
+        <v>3206.680274668176</v>
       </c>
       <c r="U38" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515856</v>
       </c>
       <c r="V38" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746128</v>
       </c>
       <c r="W38" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049858</v>
       </c>
       <c r="X38" t="n">
         <v>2290.538235362621</v>
       </c>
       <c r="Y38" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960653</v>
       </c>
     </row>
     <row r="39">
@@ -7242,22 +7242,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
@@ -7306,16 +7306,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>402.2593958170925</v>
+        <v>402.2593958170923</v>
       </c>
       <c r="C40" t="n">
-        <v>331.9946474630289</v>
+        <v>331.9946474630288</v>
       </c>
       <c r="D40" t="n">
-        <v>280.5494426245366</v>
+        <v>280.5494426245365</v>
       </c>
       <c r="E40" t="n">
-        <v>231.3077836159869</v>
+        <v>231.3077836159868</v>
       </c>
       <c r="F40" t="n">
         <v>183.0892706919199</v>
@@ -7324,31 +7324,31 @@
         <v>114.0578686404822</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I40" t="n">
-        <v>67.83109325226761</v>
+        <v>67.83109325226764</v>
       </c>
       <c r="J40" t="n">
-        <v>79.65384678970706</v>
+        <v>176.361719815531</v>
       </c>
       <c r="K40" t="n">
-        <v>177.9647010573775</v>
+        <v>371.3804471090253</v>
       </c>
       <c r="L40" t="n">
-        <v>409.2396941488532</v>
+        <v>527.0902910313825</v>
       </c>
       <c r="M40" t="n">
-        <v>673.3800484738749</v>
+        <v>694.5227723305803</v>
       </c>
       <c r="N40" t="n">
-        <v>941.3967585295463</v>
+        <v>962.5394823862518</v>
       </c>
       <c r="O40" t="n">
         <v>1176.02298077356</v>
       </c>
       <c r="P40" t="n">
-        <v>1371.681856552143</v>
+        <v>1371.681856552142</v>
       </c>
       <c r="Q40" t="n">
         <v>1481.310496936507</v>
@@ -7366,16 +7366,16 @@
         <v>1083.43447606251</v>
       </c>
       <c r="V40" t="n">
-        <v>927.4214224304668</v>
+        <v>927.4214224304665</v>
       </c>
       <c r="W40" t="n">
-        <v>736.6756869673495</v>
+        <v>736.6756869673493</v>
       </c>
       <c r="X40" t="n">
-        <v>607.3575706431756</v>
+        <v>607.3575706431753</v>
       </c>
       <c r="Y40" t="n">
-        <v>485.2364260734888</v>
+        <v>485.2364260734886</v>
       </c>
     </row>
     <row r="41">
@@ -7388,19 +7388,19 @@
         <v>1711.141932470374</v>
       </c>
       <c r="C41" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103806</v>
       </c>
       <c r="D41" t="n">
         <v>1181.256586070898</v>
       </c>
       <c r="E41" t="n">
-        <v>894.1397680464975</v>
+        <v>894.1397680464977</v>
       </c>
       <c r="F41" t="n">
-        <v>581.8252978307332</v>
+        <v>581.8252978307335</v>
       </c>
       <c r="G41" t="n">
-        <v>265.4242822495729</v>
+        <v>265.4242822495728</v>
       </c>
       <c r="H41" t="n">
         <v>66.51211643218343</v>
@@ -7409,22 +7409,22 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N41" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P41" t="n">
         <v>3018.302393296687</v>
@@ -7439,22 +7439,22 @@
         <v>3313.98658771011</v>
       </c>
       <c r="T41" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668176</v>
       </c>
       <c r="U41" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515856</v>
       </c>
       <c r="V41" t="n">
         <v>2819.429779746128</v>
       </c>
       <c r="W41" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049858</v>
       </c>
       <c r="X41" t="n">
         <v>2290.538235362621</v>
       </c>
       <c r="Y41" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960653</v>
       </c>
     </row>
     <row r="42">
@@ -7488,13 +7488,13 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7521,7 +7521,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V42" t="n">
         <v>1779.608347199865</v>
@@ -7530,7 +7530,7 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y42" t="n">
         <v>1109.759191501177</v>
@@ -7543,49 +7543,49 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>402.2593958170925</v>
+        <v>402.2593958170923</v>
       </c>
       <c r="C43" t="n">
-        <v>331.994647463029</v>
+        <v>331.9946474630288</v>
       </c>
       <c r="D43" t="n">
-        <v>280.5494426245367</v>
+        <v>280.5494426245365</v>
       </c>
       <c r="E43" t="n">
-        <v>231.3077836159869</v>
+        <v>231.3077836159868</v>
       </c>
       <c r="F43" t="n">
         <v>183.0892706919199</v>
       </c>
       <c r="G43" t="n">
-        <v>114.0578686404823</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H43" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="I43" t="n">
-        <v>67.83109325226761</v>
+        <v>67.83109325226764</v>
       </c>
       <c r="J43" t="n">
-        <v>176.3617198155309</v>
+        <v>176.361719815531</v>
       </c>
       <c r="K43" t="n">
-        <v>371.3804471090252</v>
+        <v>371.3804471090253</v>
       </c>
       <c r="L43" t="n">
-        <v>623.7981640572063</v>
+        <v>623.7981640572065</v>
       </c>
       <c r="M43" t="n">
-        <v>791.2306453564041</v>
+        <v>866.7957945255224</v>
       </c>
       <c r="N43" t="n">
-        <v>962.5394823862516</v>
+        <v>1038.10463155537</v>
       </c>
       <c r="O43" t="n">
         <v>1176.02298077356</v>
       </c>
       <c r="P43" t="n">
-        <v>1371.681856552143</v>
+        <v>1371.681856552142</v>
       </c>
       <c r="Q43" t="n">
         <v>1481.310496936507</v>
@@ -7603,16 +7603,16 @@
         <v>1083.43447606251</v>
       </c>
       <c r="V43" t="n">
-        <v>927.4214224304668</v>
+        <v>927.4214224304665</v>
       </c>
       <c r="W43" t="n">
-        <v>736.6756869673495</v>
+        <v>736.6756869673493</v>
       </c>
       <c r="X43" t="n">
-        <v>607.3575706431756</v>
+        <v>607.3575706431753</v>
       </c>
       <c r="Y43" t="n">
-        <v>485.2364260734889</v>
+        <v>485.2364260734886</v>
       </c>
     </row>
     <row r="44">
@@ -7628,37 +7628,37 @@
         <v>1440.850850103805</v>
       </c>
       <c r="D44" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070897</v>
       </c>
       <c r="E44" t="n">
-        <v>894.1397680464968</v>
+        <v>894.1397680464966</v>
       </c>
       <c r="F44" t="n">
         <v>581.8252978307328</v>
       </c>
       <c r="G44" t="n">
-        <v>265.4242822495729</v>
+        <v>265.4242822495728</v>
       </c>
       <c r="H44" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218377</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O44" t="n">
         <v>2623.528026939508</v>
@@ -7673,25 +7673,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3313.98658771011</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T44" t="n">
-        <v>3206.680274668176</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U44" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515854</v>
       </c>
       <c r="V44" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W44" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X44" t="n">
         <v>2290.53823536262</v>
       </c>
       <c r="Y44" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960651</v>
       </c>
     </row>
     <row r="45">
@@ -7780,49 +7780,49 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>402.2593958170925</v>
+        <v>402.2593958170923</v>
       </c>
       <c r="C46" t="n">
-        <v>331.994647463029</v>
+        <v>331.9946474630288</v>
       </c>
       <c r="D46" t="n">
-        <v>280.5494426245367</v>
+        <v>280.5494426245365</v>
       </c>
       <c r="E46" t="n">
-        <v>231.3077836159869</v>
+        <v>231.3077836159868</v>
       </c>
       <c r="F46" t="n">
         <v>183.0892706919199</v>
       </c>
       <c r="G46" t="n">
-        <v>114.0578686404823</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H46" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="I46" t="n">
-        <v>67.83109325226761</v>
+        <v>67.83109325226764</v>
       </c>
       <c r="J46" t="n">
-        <v>176.3617198155309</v>
+        <v>176.361719815531</v>
       </c>
       <c r="K46" t="n">
-        <v>371.3804471090252</v>
+        <v>371.3804471090253</v>
       </c>
       <c r="L46" t="n">
-        <v>623.7981640572063</v>
+        <v>527.0902910313825</v>
       </c>
       <c r="M46" t="n">
-        <v>866.7957945255229</v>
+        <v>694.5227723305803</v>
       </c>
       <c r="N46" t="n">
-        <v>1038.10463155537</v>
+        <v>962.5394823862518</v>
       </c>
       <c r="O46" t="n">
-        <v>1272.730853799384</v>
+        <v>1197.165704630266</v>
       </c>
       <c r="P46" t="n">
-        <v>1371.681856552143</v>
+        <v>1371.681856552142</v>
       </c>
       <c r="Q46" t="n">
         <v>1481.310496936507</v>
@@ -7840,16 +7840,16 @@
         <v>1083.43447606251</v>
       </c>
       <c r="V46" t="n">
-        <v>927.4214224304668</v>
+        <v>927.4214224304665</v>
       </c>
       <c r="W46" t="n">
-        <v>736.6756869673495</v>
+        <v>736.6756869673493</v>
       </c>
       <c r="X46" t="n">
-        <v>607.3575706431756</v>
+        <v>607.3575706431753</v>
       </c>
       <c r="Y46" t="n">
-        <v>485.2364260734889</v>
+        <v>485.2364260734886</v>
       </c>
     </row>
   </sheetData>
@@ -10033,25 +10033,25 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>137.5831763795803</v>
       </c>
       <c r="M28" t="n">
-        <v>109.8170812056821</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>171.8177168444618</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>163.0416663658825</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10267,19 +10267,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L31" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M31" t="n">
-        <v>178.5096609094456</v>
+        <v>76.47879682934359</v>
       </c>
       <c r="N31" t="n">
-        <v>103.6921019650263</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -10288,7 +10288,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10510,19 +10510,19 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>146.628234736103</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O34" t="n">
-        <v>163.0416663658825</v>
+        <v>110.3840460300084</v>
       </c>
       <c r="P34" t="n">
-        <v>135.0065633140411</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -23258,25 +23258,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>338.074099077633</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>327.4842489273084</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>354.7315773788872</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>379.6772530483369</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>384.2056683677818</v>
       </c>
       <c r="H11" t="n">
-        <v>272.3527856880833</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>32.98879388501746</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,22 +23306,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>55.16825723712725</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>178.8323516934651</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>223.8349980981436</v>
       </c>
       <c r="V11" t="n">
-        <v>6.953282006602408</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>322.0421760240385</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>342.5323079850945</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23422,7 +23422,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>119.2351699531946</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,7 +23431,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>12.94252715096916</v>
+        <v>119.4814462069699</v>
       </c>
       <c r="I13" t="n">
         <v>75.66553052399547</v>
@@ -23461,25 +23461,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>71.46971768104183</v>
+        <v>71.46971768104184</v>
       </c>
       <c r="S13" t="n">
-        <v>166.3439078744757</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>259.0248567023366</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>259.3242056432165</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>179.3395077125503</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23501,16 +23501,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>354.7315773788873</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>245.9339884751172</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>267.4089716939459</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23552,13 +23552,13 @@
         <v>223.7963792655274</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>300.5534657767603</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>32.7031283832977</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>121.4166803248378</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>119.2351699531946</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>118.2222553295567</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>112.6097546447489</v>
+        <v>117.5562222209462</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>69.15362771646355</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>25.76096480268927</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>259.0130455122383</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23789,7 +23789,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -24026,7 +24026,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>1.238049662788398e-12</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1073185.257960183</v>
+        <v>1073185.257960184</v>
       </c>
     </row>
     <row r="7">
@@ -26320,13 +26320,13 @@
         <v>245794.1239448371</v>
       </c>
       <c r="E2" t="n">
-        <v>202803.2664106861</v>
+        <v>202803.2664106862</v>
       </c>
       <c r="F2" t="n">
         <v>219009.6419585974</v>
       </c>
       <c r="G2" t="n">
-        <v>246312.5309592852</v>
+        <v>246312.5309592853</v>
       </c>
       <c r="H2" t="n">
         <v>246312.5309592852</v>
@@ -26335,7 +26335,7 @@
         <v>246312.5309592852</v>
       </c>
       <c r="J2" t="n">
-        <v>246312.5309592849</v>
+        <v>246312.530959285</v>
       </c>
       <c r="K2" t="n">
         <v>246312.5309592849</v>
@@ -26344,7 +26344,7 @@
         <v>246312.530959285</v>
       </c>
       <c r="M2" t="n">
-        <v>246312.5309592853</v>
+        <v>246312.5309592852</v>
       </c>
       <c r="N2" t="n">
         <v>246312.5309592853</v>
@@ -26369,16 +26369,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>100114.1696842504</v>
+        <v>100114.1696842505</v>
       </c>
       <c r="E3" t="n">
-        <v>911200.4620994308</v>
+        <v>911200.4620994306</v>
       </c>
       <c r="F3" t="n">
-        <v>137079.9226619466</v>
+        <v>137079.9226619467</v>
       </c>
       <c r="G3" t="n">
-        <v>56388.74202778425</v>
+        <v>56388.74202778427</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>25672.44197498312</v>
+        <v>25672.44197498303</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>56388.74202778425</v>
+        <v>56388.74202778428</v>
       </c>
       <c r="M3" t="n">
         <v>167824.84121527</v>
       </c>
       <c r="N3" t="n">
-        <v>36041.55869098422</v>
+        <v>36041.55869098432</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26424,40 +26424,40 @@
         <v>426870.950574275</v>
       </c>
       <c r="E4" t="n">
-        <v>52907.79962237076</v>
+        <v>52907.79962237077</v>
       </c>
       <c r="F4" t="n">
-        <v>42745.52243480917</v>
+        <v>42745.52243480919</v>
       </c>
       <c r="G4" t="n">
         <v>93774.13782657695</v>
       </c>
       <c r="H4" t="n">
-        <v>93774.13782657693</v>
+        <v>93774.13782657695</v>
       </c>
       <c r="I4" t="n">
-        <v>93774.13782657692</v>
+        <v>93774.13782657695</v>
       </c>
       <c r="J4" t="n">
         <v>94617.61747824095</v>
       </c>
       <c r="K4" t="n">
-        <v>94617.61747824092</v>
+        <v>94617.61747824089</v>
       </c>
       <c r="L4" t="n">
-        <v>94617.61747824089</v>
+        <v>94617.61747824086</v>
       </c>
       <c r="M4" t="n">
-        <v>93774.137826577</v>
+        <v>93774.13782657697</v>
       </c>
       <c r="N4" t="n">
         <v>93774.137826577</v>
       </c>
       <c r="O4" t="n">
-        <v>93774.13782657702</v>
+        <v>93774.137826577</v>
       </c>
       <c r="P4" t="n">
-        <v>93774.13782657699</v>
+        <v>93774.137826577</v>
       </c>
     </row>
     <row r="5">
@@ -26485,7 +26485,7 @@
         <v>82518.59730624985</v>
       </c>
       <c r="H5" t="n">
-        <v>82518.59730624985</v>
+        <v>82518.59730624984</v>
       </c>
       <c r="I5" t="n">
         <v>82518.59730624985</v>
@@ -26494,22 +26494,22 @@
         <v>86197.70236318492</v>
       </c>
       <c r="K5" t="n">
-        <v>86197.70236318492</v>
+        <v>86197.7023631849</v>
       </c>
       <c r="L5" t="n">
         <v>86197.70236318492</v>
       </c>
       <c r="M5" t="n">
+        <v>82518.59730624985</v>
+      </c>
+      <c r="N5" t="n">
         <v>82518.59730624987</v>
       </c>
-      <c r="N5" t="n">
-        <v>82518.59730624985</v>
-      </c>
       <c r="O5" t="n">
-        <v>82518.59730624985</v>
+        <v>82518.59730624987</v>
       </c>
       <c r="P5" t="n">
-        <v>82518.59730624985</v>
+        <v>82518.59730624987</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-255460.6583166198</v>
+        <v>-255465.0718944878</v>
       </c>
       <c r="C6" t="n">
-        <v>-255460.6583166197</v>
+        <v>-255465.0718944878</v>
       </c>
       <c r="D6" t="n">
-        <v>-317367.0003555614</v>
+        <v>-317371.3204140152</v>
       </c>
       <c r="E6" t="n">
-        <v>-826333.3010537346</v>
+        <v>-826695.878258306</v>
       </c>
       <c r="F6" t="n">
-        <v>-37408.71900249099</v>
+        <v>-37636.24307749679</v>
       </c>
       <c r="G6" t="n">
-        <v>13631.05379867418</v>
+        <v>13631.05379867421</v>
       </c>
       <c r="H6" t="n">
-        <v>70019.79582645847</v>
+        <v>70019.79582645846</v>
       </c>
       <c r="I6" t="n">
         <v>70019.79582645844</v>
       </c>
       <c r="J6" t="n">
-        <v>39824.76914287591</v>
+        <v>39824.76914287606</v>
       </c>
       <c r="K6" t="n">
-        <v>65497.21111785906</v>
+        <v>65497.2111178591</v>
       </c>
       <c r="L6" t="n">
         <v>9108.469090074941</v>
       </c>
       <c r="M6" t="n">
-        <v>-97805.04538881162</v>
+        <v>-97805.04538881157</v>
       </c>
       <c r="N6" t="n">
-        <v>33978.23713547421</v>
+        <v>33978.23713547408</v>
       </c>
       <c r="O6" t="n">
-        <v>70019.79582645836</v>
+        <v>70019.79582645837</v>
       </c>
       <c r="P6" t="n">
-        <v>70019.79582645842</v>
+        <v>70019.79582645837</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>27.19879269337454</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="F2" t="n">
-        <v>27.19879269337454</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="G2" t="n">
-        <v>97.68472022810485</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="H2" t="n">
-        <v>97.68472022810485</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="I2" t="n">
-        <v>97.68472022810485</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="J2" t="n">
-        <v>70.48592753473031</v>
+        <v>70.48592753473035</v>
       </c>
       <c r="K2" t="n">
-        <v>70.48592753473031</v>
+        <v>70.48592753473035</v>
       </c>
       <c r="L2" t="n">
-        <v>70.48592753473031</v>
+        <v>70.48592753473037</v>
       </c>
       <c r="M2" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="N2" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="O2" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="P2" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
     </row>
     <row r="3">
@@ -26741,10 +26741,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>116.8992679758276</v>
+        <v>116.8992679758277</v>
       </c>
       <c r="E3" t="n">
-        <v>969.696267927202</v>
+        <v>969.6962679272019</v>
       </c>
       <c r="F3" t="n">
         <v>1089.776700593298</v>
@@ -26765,10 +26765,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="L3" t="n">
+        <v>1089.776700593299</v>
+      </c>
+      <c r="M3" t="n">
         <v>1089.776700593298</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1089.776700593299</v>
       </c>
       <c r="N3" t="n">
         <v>1089.776700593298</v>
@@ -26799,31 +26799,31 @@
         <v>684.2492072182042</v>
       </c>
       <c r="F4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="G4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="H4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="I4" t="n">
         <v>831.4014554022929</v>
       </c>
-      <c r="G4" t="n">
+      <c r="J4" t="n">
+        <v>929.5211981633844</v>
+      </c>
+      <c r="K4" t="n">
+        <v>929.5211981633842</v>
+      </c>
+      <c r="L4" t="n">
+        <v>929.5211981633842</v>
+      </c>
+      <c r="M4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="N4" t="n">
         <v>831.4014554022929</v>
-      </c>
-      <c r="H4" t="n">
-        <v>831.4014554022928</v>
-      </c>
-      <c r="I4" t="n">
-        <v>831.4014554022928</v>
-      </c>
-      <c r="J4" t="n">
-        <v>929.5211981633846</v>
-      </c>
-      <c r="K4" t="n">
-        <v>929.5211981633844</v>
-      </c>
-      <c r="L4" t="n">
-        <v>929.5211981633844</v>
-      </c>
-      <c r="M4" t="n">
-        <v>831.4014554022929</v>
-      </c>
-      <c r="N4" t="n">
-        <v>831.4014554022926</v>
       </c>
       <c r="O4" t="n">
         <v>831.4014554022929</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>27.19879269337454</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>70.48592753473031</v>
+        <v>70.48592753473034</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,13 +26935,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>70.48592753473031</v>
+        <v>70.48592753473035</v>
       </c>
       <c r="M2" t="n">
-        <v>27.19879269337464</v>
+        <v>27.19879269337456</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26963,13 +26963,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>116.8992679758276</v>
+        <v>116.8992679758277</v>
       </c>
       <c r="E3" t="n">
-        <v>852.7969999513745</v>
+        <v>852.7969999513742</v>
       </c>
       <c r="F3" t="n">
-        <v>120.0804326660963</v>
+        <v>120.0804326660964</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27021,31 +27021,31 @@
         <v>684.2492072182042</v>
       </c>
       <c r="F4" t="n">
+        <v>147.1522481840885</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>98.11974276109152</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>586.1294644571128</v>
+      </c>
+      <c r="N4" t="n">
         <v>147.1522481840886</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>98.11974276109186</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>586.1294644571127</v>
-      </c>
-      <c r="N4" t="n">
-        <v>147.1522481840884</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>27.19879269337454</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>70.48592753473031</v>
+        <v>70.48592753473034</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27267,7 +27267,7 @@
         <v>684.2492072182042</v>
       </c>
       <c r="N4" t="n">
-        <v>147.1522481840886</v>
+        <v>147.1522481840885</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27877,22 +27877,22 @@
         <v>141.1597568066324</v>
       </c>
       <c r="K8" t="n">
-        <v>160.3108550297839</v>
+        <v>160.3108550297838</v>
       </c>
       <c r="L8" t="n">
         <v>161.6052843927192</v>
       </c>
       <c r="M8" t="n">
-        <v>147.8276861399942</v>
+        <v>147.8276861399941</v>
       </c>
       <c r="N8" t="n">
-        <v>145.5592801469553</v>
+        <v>145.5592801469552</v>
       </c>
       <c r="O8" t="n">
         <v>150.9174615235471</v>
       </c>
       <c r="P8" t="n">
-        <v>163.6540576286003</v>
+        <v>163.6540576286002</v>
       </c>
       <c r="Q8" t="n">
         <v>171.5567217352549</v>
@@ -27950,28 +27950,28 @@
         <v>109.8070273677911</v>
       </c>
       <c r="I9" t="n">
-        <v>90.86521723009201</v>
+        <v>90.865217230092</v>
       </c>
       <c r="J9" t="n">
         <v>103.0817103320695</v>
       </c>
       <c r="K9" t="n">
-        <v>97.23879417184912</v>
+        <v>97.23879417184911</v>
       </c>
       <c r="L9" t="n">
-        <v>83.95911316531431</v>
+        <v>83.95911316531428</v>
       </c>
       <c r="M9" t="n">
-        <v>78.42393287519228</v>
+        <v>78.42393287519225</v>
       </c>
       <c r="N9" t="n">
-        <v>65.94539423712008</v>
+        <v>65.94539423712004</v>
       </c>
       <c r="O9" t="n">
-        <v>82.77138982289047</v>
+        <v>82.77138982289044</v>
       </c>
       <c r="P9" t="n">
-        <v>85.95968732818324</v>
+        <v>85.95968732818321</v>
       </c>
       <c r="Q9" t="n">
         <v>107.8852052636773</v>
@@ -28044,13 +28044,13 @@
         <v>105.8816187392904</v>
       </c>
       <c r="N10" t="n">
-        <v>95.42709564823144</v>
+        <v>95.42709564823141</v>
       </c>
       <c r="O10" t="n">
         <v>108.6606397881023</v>
       </c>
       <c r="P10" t="n">
-        <v>112.2324653417639</v>
+        <v>112.2324653417638</v>
       </c>
       <c r="Q10" t="n">
         <v>133.8532121650959</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>27.19879269337454</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="C11" t="n">
-        <v>27.19879269337454</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="D11" t="n">
-        <v>27.19879269337454</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="E11" t="n">
-        <v>27.19879269337454</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="F11" t="n">
-        <v>27.19879269337454</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="G11" t="n">
-        <v>27.19879269337454</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="H11" t="n">
-        <v>27.19879269337454</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="I11" t="n">
-        <v>27.19879269337454</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>27.19879269337454</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="T11" t="n">
-        <v>27.19879269337454</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="U11" t="n">
-        <v>27.19879269337454</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="V11" t="n">
-        <v>27.19879269337454</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="W11" t="n">
-        <v>27.19879269337454</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="X11" t="n">
-        <v>27.19879269337454</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="Y11" t="n">
-        <v>27.19879269337454</v>
+        <v>27.19879269337455</v>
       </c>
     </row>
     <row r="12">
@@ -28166,28 +28166,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>27.19879269337454</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="C12" t="n">
-        <v>27.19879269337454</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="D12" t="n">
-        <v>27.19879269337454</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="E12" t="n">
-        <v>27.19879269337454</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="F12" t="n">
-        <v>27.19879269337454</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="G12" t="n">
-        <v>27.19879269337454</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="H12" t="n">
-        <v>27.19879269337454</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="I12" t="n">
-        <v>27.19879269337454</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28217,25 +28217,25 @@
         <v>16.17931180568587</v>
       </c>
       <c r="S12" t="n">
-        <v>27.19879269337454</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="T12" t="n">
-        <v>27.19879269337454</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="U12" t="n">
-        <v>27.19879269337454</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="V12" t="n">
-        <v>27.19879269337454</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="W12" t="n">
-        <v>27.19879269337454</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="X12" t="n">
-        <v>27.19879269337454</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="Y12" t="n">
-        <v>27.19879269337454</v>
+        <v>27.19879269337455</v>
       </c>
     </row>
     <row r="13">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>27.19879269337454</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="C13" t="n">
-        <v>27.19879269337454</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="D13" t="n">
-        <v>27.19879269337454</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="E13" t="n">
-        <v>27.19879269337454</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="F13" t="n">
-        <v>27.19879269337454</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="G13" t="n">
-        <v>27.19879269337454</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="H13" t="n">
-        <v>27.19879269337454</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="I13" t="n">
-        <v>27.19879269337454</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="J13" t="n">
-        <v>27.19879269337454</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="K13" t="n">
-        <v>27.19879269337454</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="L13" t="n">
-        <v>27.19879269337454</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="M13" t="n">
-        <v>27.19879269337454</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="N13" t="n">
-        <v>27.19879269337454</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="O13" t="n">
-        <v>27.19879269337454</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="P13" t="n">
-        <v>27.19879269337454</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="Q13" t="n">
-        <v>27.19879269337454</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="R13" t="n">
-        <v>27.19879269337454</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="S13" t="n">
-        <v>27.19879269337454</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="T13" t="n">
-        <v>27.19879269337454</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="U13" t="n">
-        <v>27.19879269337454</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="V13" t="n">
-        <v>27.19879269337454</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="W13" t="n">
-        <v>27.19879269337454</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="X13" t="n">
-        <v>27.19879269337454</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="Y13" t="n">
-        <v>27.19879269337454</v>
+        <v>27.19879269337455</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>27.19879269337454</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="C14" t="n">
-        <v>27.19879269337454</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="D14" t="n">
-        <v>27.19879269337454</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="E14" t="n">
-        <v>27.19879269337454</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="F14" t="n">
-        <v>27.19879269337454</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="G14" t="n">
-        <v>27.19879269337454</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="H14" t="n">
-        <v>27.19879269337454</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="I14" t="n">
-        <v>27.19879269337454</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>27.19879269337454</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="T14" t="n">
-        <v>27.19879269337454</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="U14" t="n">
-        <v>27.19879269337454</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="V14" t="n">
-        <v>27.19879269337454</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="W14" t="n">
-        <v>27.19879269337454</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="X14" t="n">
-        <v>27.19879269337454</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="Y14" t="n">
-        <v>27.19879269337454</v>
+        <v>27.19879269337455</v>
       </c>
     </row>
     <row r="15">
@@ -28424,7 +28424,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>2.167155344068306e-13</v>
+        <v>2.025046796916286e-13</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>27.19879269337454</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="C16" t="n">
-        <v>27.19879269337454</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="D16" t="n">
-        <v>27.19879269337454</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="E16" t="n">
-        <v>27.19879269337454</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="F16" t="n">
-        <v>27.19879269337454</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="G16" t="n">
-        <v>27.19879269337454</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="H16" t="n">
-        <v>27.19879269337454</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="I16" t="n">
-        <v>27.19879269337454</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="J16" t="n">
-        <v>27.19879269337454</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="K16" t="n">
-        <v>27.19879269337454</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="L16" t="n">
-        <v>27.19879269337454</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="M16" t="n">
-        <v>27.19879269337454</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="N16" t="n">
-        <v>27.19879269337454</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="O16" t="n">
-        <v>27.19879269337454</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="P16" t="n">
-        <v>27.19879269337454</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="Q16" t="n">
-        <v>27.19879269337454</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="R16" t="n">
-        <v>27.19879269337454</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="S16" t="n">
-        <v>27.19879269337454</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="T16" t="n">
-        <v>27.19879269337454</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="U16" t="n">
-        <v>27.19879269337454</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="V16" t="n">
-        <v>27.19879269337454</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="W16" t="n">
-        <v>27.19879269337454</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="X16" t="n">
-        <v>27.19879269337454</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="Y16" t="n">
-        <v>27.19879269337454</v>
+        <v>27.19879269337455</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>97.68472022810485</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="C17" t="n">
-        <v>97.68472022810485</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="D17" t="n">
-        <v>97.68472022810485</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="E17" t="n">
-        <v>97.68472022810485</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="F17" t="n">
-        <v>97.68472022810485</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="G17" t="n">
-        <v>97.68472022810485</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="H17" t="n">
-        <v>97.68472022810485</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>97.68472022810485</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="T17" t="n">
-        <v>97.68472022810485</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="U17" t="n">
-        <v>97.68472022810485</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="V17" t="n">
-        <v>97.68472022810485</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="W17" t="n">
-        <v>97.68472022810485</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="X17" t="n">
-        <v>97.68472022810485</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="Y17" t="n">
-        <v>97.68472022810485</v>
+        <v>97.68472022810488</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.68472022810485</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="C19" t="n">
-        <v>97.68472022810485</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="D19" t="n">
-        <v>97.68472022810485</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="E19" t="n">
-        <v>97.68472022810485</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="F19" t="n">
-        <v>97.68472022810485</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="G19" t="n">
-        <v>97.68472022810485</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="H19" t="n">
-        <v>97.68472022810485</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="I19" t="n">
-        <v>97.68472022810485</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>86.41330088048576</v>
       </c>
       <c r="K19" t="n">
-        <v>76.32843350416195</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>97.68472022810485</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="M19" t="n">
-        <v>97.68472022810485</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>97.68472022810485</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="O19" t="n">
-        <v>97.68472022810485</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="Q19" t="n">
-        <v>97.68472022810485</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="R19" t="n">
-        <v>97.68472022810485</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>97.68472022810485</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="T19" t="n">
-        <v>97.68472022810485</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="U19" t="n">
-        <v>97.68472022810485</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="V19" t="n">
-        <v>97.68472022810485</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="W19" t="n">
-        <v>97.68472022810485</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="X19" t="n">
-        <v>97.68472022810485</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.68472022810485</v>
+        <v>97.68472022810488</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>97.68472022810485</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="C20" t="n">
-        <v>97.68472022810485</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="D20" t="n">
-        <v>97.68472022810485</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="E20" t="n">
-        <v>97.68472022810485</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="F20" t="n">
-        <v>97.68472022810485</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="G20" t="n">
-        <v>97.68472022810485</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="H20" t="n">
-        <v>97.68472022810485</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>97.68472022810485</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="T20" t="n">
-        <v>97.68472022810485</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="U20" t="n">
-        <v>97.68472022810485</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="V20" t="n">
-        <v>97.68472022810485</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="W20" t="n">
-        <v>97.68472022810485</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="X20" t="n">
-        <v>97.68472022810485</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="Y20" t="n">
-        <v>97.68472022810485</v>
+        <v>97.68472022810488</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.68472022810485</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="C22" t="n">
-        <v>97.68472022810485</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="D22" t="n">
-        <v>97.68472022810485</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="E22" t="n">
-        <v>97.68472022810485</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="F22" t="n">
-        <v>97.68472022810485</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="G22" t="n">
-        <v>97.68472022810485</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="H22" t="n">
-        <v>97.68472022810485</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="I22" t="n">
         <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
-        <v>77.6607333224287</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="K22" t="n">
-        <v>97.68472022810485</v>
+        <v>86.41330088048585</v>
       </c>
       <c r="L22" t="n">
-        <v>97.68472022810485</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="N22" t="n">
-        <v>97.68472022810485</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>97.68472022810485</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="Q22" t="n">
-        <v>97.68472022810485</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>97.68472022810485</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>97.68472022810485</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="T22" t="n">
-        <v>97.68472022810485</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="U22" t="n">
-        <v>97.68472022810485</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="V22" t="n">
-        <v>97.68472022810485</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="W22" t="n">
-        <v>97.68472022810485</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="X22" t="n">
-        <v>97.68472022810485</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.68472022810485</v>
+        <v>97.68472022810488</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>97.68472022810485</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="C23" t="n">
-        <v>97.68472022810485</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="D23" t="n">
-        <v>97.68472022810485</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="E23" t="n">
-        <v>97.68472022810485</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="F23" t="n">
-        <v>97.68472022810485</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="G23" t="n">
-        <v>97.68472022810485</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="H23" t="n">
-        <v>97.68472022810485</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>97.68472022810485</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="T23" t="n">
-        <v>97.68472022810485</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="U23" t="n">
-        <v>97.68472022810485</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="V23" t="n">
-        <v>97.68472022810485</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="W23" t="n">
-        <v>97.68472022810485</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="X23" t="n">
-        <v>97.68472022810485</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="Y23" t="n">
-        <v>97.68472022810485</v>
+        <v>97.68472022810489</v>
       </c>
     </row>
     <row r="24">
@@ -29135,7 +29135,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>2.167155344068306e-13</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.68472022810485</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="C25" t="n">
-        <v>97.68472022810485</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="D25" t="n">
-        <v>97.68472022810485</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="E25" t="n">
-        <v>97.68472022810485</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="F25" t="n">
-        <v>97.68472022810485</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="G25" t="n">
-        <v>97.68472022810485</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="H25" t="n">
-        <v>97.68472022810485</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="I25" t="n">
         <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
-        <v>97.68472022810485</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="K25" t="n">
-        <v>97.68472022810485</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="M25" t="n">
-        <v>86.41330088048616</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>86.41330088048528</v>
       </c>
       <c r="O25" t="n">
-        <v>97.68472022810485</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="P25" t="n">
-        <v>97.68472022810485</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>97.68472022810485</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>97.68472022810485</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="T25" t="n">
-        <v>97.68472022810485</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="U25" t="n">
-        <v>97.68472022810485</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="V25" t="n">
-        <v>97.68472022810485</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="W25" t="n">
-        <v>97.68472022810485</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="X25" t="n">
-        <v>97.68472022810485</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.68472022810485</v>
+        <v>97.68472022810489</v>
       </c>
     </row>
     <row r="26">
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>70.48592753473031</v>
+        <v>70.48592753473035</v>
       </c>
       <c r="C26" t="n">
-        <v>70.48592753473031</v>
+        <v>70.48592753473035</v>
       </c>
       <c r="D26" t="n">
-        <v>70.48592753473031</v>
+        <v>70.48592753473035</v>
       </c>
       <c r="E26" t="n">
-        <v>70.48592753473031</v>
+        <v>70.48592753473035</v>
       </c>
       <c r="F26" t="n">
-        <v>70.48592753473031</v>
+        <v>70.48592753473035</v>
       </c>
       <c r="G26" t="n">
-        <v>70.48592753473031</v>
+        <v>70.48592753473035</v>
       </c>
       <c r="H26" t="n">
-        <v>70.48592753473031</v>
+        <v>70.48592753473035</v>
       </c>
       <c r="I26" t="n">
-        <v>70.48592753473031</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
-        <v>70.48592753473031</v>
+        <v>70.48592753473035</v>
       </c>
       <c r="K26" t="n">
-        <v>70.48592753473031</v>
+        <v>70.48592753473035</v>
       </c>
       <c r="L26" t="n">
-        <v>70.48592753473031</v>
+        <v>70.48592753473035</v>
       </c>
       <c r="M26" t="n">
-        <v>70.48592753473031</v>
+        <v>70.48592753473035</v>
       </c>
       <c r="N26" t="n">
-        <v>70.48592753473031</v>
+        <v>70.48592753473035</v>
       </c>
       <c r="O26" t="n">
-        <v>7.175901557958241</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>36.08489931976149</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.48592753473031</v>
+        <v>70.48592753473035</v>
       </c>
       <c r="T26" t="n">
-        <v>70.48592753473031</v>
+        <v>70.48592753473035</v>
       </c>
       <c r="U26" t="n">
-        <v>70.48592753473031</v>
+        <v>70.48592753473035</v>
       </c>
       <c r="V26" t="n">
-        <v>70.48592753473031</v>
+        <v>70.48592753473035</v>
       </c>
       <c r="W26" t="n">
-        <v>70.48592753473031</v>
+        <v>70.48592753473035</v>
       </c>
       <c r="X26" t="n">
-        <v>70.48592753473031</v>
+        <v>70.48592753473035</v>
       </c>
       <c r="Y26" t="n">
-        <v>70.48592753473031</v>
+        <v>70.48592753473035</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>70.48592753473031</v>
+        <v>70.48592753473035</v>
       </c>
       <c r="C28" t="n">
-        <v>70.48592753473031</v>
+        <v>70.48592753473035</v>
       </c>
       <c r="D28" t="n">
-        <v>70.48592753473031</v>
+        <v>70.48592753473035</v>
       </c>
       <c r="E28" t="n">
-        <v>70.48592753473031</v>
+        <v>70.48592753473035</v>
       </c>
       <c r="F28" t="n">
-        <v>70.48592753473031</v>
+        <v>70.48592753473035</v>
       </c>
       <c r="G28" t="n">
-        <v>70.48592753473031</v>
+        <v>70.48592753473035</v>
       </c>
       <c r="H28" t="n">
-        <v>70.48592753473031</v>
+        <v>70.48592753473035</v>
       </c>
       <c r="I28" t="n">
-        <v>70.48592753473031</v>
+        <v>70.48592753473035</v>
       </c>
       <c r="J28" t="n">
-        <v>70.48592753473031</v>
+        <v>70.48592753473035</v>
       </c>
       <c r="K28" t="n">
-        <v>70.48592753473031</v>
+        <v>70.48592753473035</v>
       </c>
       <c r="L28" t="n">
-        <v>70.48592753473031</v>
+        <v>70.48592753473035</v>
       </c>
       <c r="M28" t="n">
-        <v>70.48592753473031</v>
+        <v>70.48592753473035</v>
       </c>
       <c r="N28" t="n">
-        <v>70.48592753473031</v>
+        <v>70.48592753473035</v>
       </c>
       <c r="O28" t="n">
-        <v>70.48592753473031</v>
+        <v>70.48592753473035</v>
       </c>
       <c r="P28" t="n">
-        <v>70.48592753473031</v>
+        <v>70.48592753473035</v>
       </c>
       <c r="Q28" t="n">
-        <v>70.48592753473031</v>
+        <v>70.48592753473035</v>
       </c>
       <c r="R28" t="n">
-        <v>70.48592753473031</v>
+        <v>70.48592753473035</v>
       </c>
       <c r="S28" t="n">
-        <v>70.48592753473031</v>
+        <v>70.48592753473035</v>
       </c>
       <c r="T28" t="n">
-        <v>70.48592753473031</v>
+        <v>70.48592753473035</v>
       </c>
       <c r="U28" t="n">
-        <v>70.48592753473031</v>
+        <v>70.48592753473035</v>
       </c>
       <c r="V28" t="n">
-        <v>70.48592753473031</v>
+        <v>70.48592753473035</v>
       </c>
       <c r="W28" t="n">
-        <v>70.48592753473031</v>
+        <v>70.48592753473035</v>
       </c>
       <c r="X28" t="n">
-        <v>70.48592753473031</v>
+        <v>70.48592753473035</v>
       </c>
       <c r="Y28" t="n">
-        <v>70.48592753473031</v>
+        <v>70.48592753473035</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>70.48592753473031</v>
+        <v>70.48592753473035</v>
       </c>
       <c r="C29" t="n">
-        <v>70.48592753473031</v>
+        <v>70.48592753473035</v>
       </c>
       <c r="D29" t="n">
-        <v>70.48592753473031</v>
+        <v>70.48592753473035</v>
       </c>
       <c r="E29" t="n">
-        <v>70.48592753473031</v>
+        <v>70.48592753473035</v>
       </c>
       <c r="F29" t="n">
-        <v>70.48592753473031</v>
+        <v>70.48592753473035</v>
       </c>
       <c r="G29" t="n">
-        <v>70.48592753473031</v>
+        <v>70.48592753473035</v>
       </c>
       <c r="H29" t="n">
-        <v>70.48592753473031</v>
+        <v>70.48592753473035</v>
       </c>
       <c r="I29" t="n">
-        <v>70.48592753473031</v>
+        <v>70.48592753473035</v>
       </c>
       <c r="J29" t="n">
-        <v>70.48592753473031</v>
+        <v>70.48592753473035</v>
       </c>
       <c r="K29" t="n">
-        <v>70.48592753473031</v>
+        <v>70.48592753473035</v>
       </c>
       <c r="L29" t="n">
-        <v>70.48592753473031</v>
+        <v>7.175901557955967</v>
       </c>
       <c r="M29" t="n">
-        <v>70.48592753473031</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>70.48592753473031</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>7.175901557957332</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>70.48592753473035</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>70.48592753473035</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>70.48592753473035</v>
       </c>
       <c r="S29" t="n">
-        <v>70.48592753473031</v>
+        <v>70.48592753473035</v>
       </c>
       <c r="T29" t="n">
-        <v>70.48592753473031</v>
+        <v>70.48592753473035</v>
       </c>
       <c r="U29" t="n">
-        <v>70.48592753473031</v>
+        <v>70.48592753473035</v>
       </c>
       <c r="V29" t="n">
-        <v>70.48592753473031</v>
+        <v>70.48592753473035</v>
       </c>
       <c r="W29" t="n">
-        <v>70.48592753473031</v>
+        <v>70.48592753473035</v>
       </c>
       <c r="X29" t="n">
-        <v>70.48592753473031</v>
+        <v>70.48592753473035</v>
       </c>
       <c r="Y29" t="n">
-        <v>70.48592753473031</v>
+        <v>70.48592753473035</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>70.48592753473031</v>
+        <v>70.48592753473035</v>
       </c>
       <c r="C31" t="n">
-        <v>70.48592753473031</v>
+        <v>70.48592753473035</v>
       </c>
       <c r="D31" t="n">
-        <v>70.48592753473031</v>
+        <v>70.48592753473035</v>
       </c>
       <c r="E31" t="n">
-        <v>70.48592753473031</v>
+        <v>70.48592753473035</v>
       </c>
       <c r="F31" t="n">
-        <v>70.48592753473031</v>
+        <v>70.48592753473035</v>
       </c>
       <c r="G31" t="n">
-        <v>70.48592753473031</v>
+        <v>70.48592753473035</v>
       </c>
       <c r="H31" t="n">
-        <v>70.48592753473031</v>
+        <v>70.48592753473035</v>
       </c>
       <c r="I31" t="n">
-        <v>70.48592753473031</v>
+        <v>70.48592753473035</v>
       </c>
       <c r="J31" t="n">
-        <v>70.48592753473031</v>
+        <v>70.48592753473035</v>
       </c>
       <c r="K31" t="n">
-        <v>70.48592753473031</v>
+        <v>70.48592753473035</v>
       </c>
       <c r="L31" t="n">
-        <v>70.48592753473031</v>
+        <v>70.48592753473035</v>
       </c>
       <c r="M31" t="n">
-        <v>70.48592753473031</v>
+        <v>70.48592753473035</v>
       </c>
       <c r="N31" t="n">
-        <v>70.48592753473031</v>
+        <v>70.48592753473035</v>
       </c>
       <c r="O31" t="n">
-        <v>70.48592753473031</v>
+        <v>70.48592753473035</v>
       </c>
       <c r="P31" t="n">
-        <v>70.48592753473031</v>
+        <v>70.48592753473035</v>
       </c>
       <c r="Q31" t="n">
-        <v>70.48592753473031</v>
+        <v>70.48592753473035</v>
       </c>
       <c r="R31" t="n">
-        <v>70.48592753473031</v>
+        <v>70.48592753473035</v>
       </c>
       <c r="S31" t="n">
-        <v>70.48592753473031</v>
+        <v>70.48592753473035</v>
       </c>
       <c r="T31" t="n">
-        <v>70.48592753473031</v>
+        <v>70.48592753473035</v>
       </c>
       <c r="U31" t="n">
-        <v>70.48592753473031</v>
+        <v>70.48592753473035</v>
       </c>
       <c r="V31" t="n">
-        <v>70.48592753473031</v>
+        <v>70.48592753473035</v>
       </c>
       <c r="W31" t="n">
-        <v>70.48592753473031</v>
+        <v>70.48592753473035</v>
       </c>
       <c r="X31" t="n">
-        <v>70.48592753473031</v>
+        <v>70.48592753473035</v>
       </c>
       <c r="Y31" t="n">
-        <v>70.48592753473031</v>
+        <v>70.48592753473035</v>
       </c>
     </row>
     <row r="32">
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>70.48592753473031</v>
+        <v>70.48592753473037</v>
       </c>
       <c r="C32" t="n">
-        <v>70.48592753473031</v>
+        <v>70.48592753473037</v>
       </c>
       <c r="D32" t="n">
-        <v>70.48592753473031</v>
+        <v>70.48592753473037</v>
       </c>
       <c r="E32" t="n">
-        <v>70.48592753473031</v>
+        <v>70.48592753473037</v>
       </c>
       <c r="F32" t="n">
-        <v>70.48592753473031</v>
+        <v>70.48592753473037</v>
       </c>
       <c r="G32" t="n">
-        <v>70.48592753473031</v>
+        <v>70.48592753473037</v>
       </c>
       <c r="H32" t="n">
-        <v>70.48592753473031</v>
+        <v>70.48592753473037</v>
       </c>
       <c r="I32" t="n">
-        <v>70.48592753473031</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J32" t="n">
-        <v>70.48592753473031</v>
+        <v>36.08489931975993</v>
       </c>
       <c r="K32" t="n">
-        <v>7.175901557956877</v>
+        <v>70.48592753473037</v>
       </c>
       <c r="L32" t="n">
-        <v>70.48592753473031</v>
+        <v>70.48592753473037</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>70.48592753473031</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>70.48592753473031</v>
+        <v>70.48592753473037</v>
       </c>
       <c r="P32" t="n">
-        <v>70.48592753473031</v>
+        <v>70.48592753473037</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>70.48592753473037</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>70.48592753473031</v>
+        <v>70.48592753473037</v>
       </c>
       <c r="T32" t="n">
-        <v>70.48592753473031</v>
+        <v>70.48592753473037</v>
       </c>
       <c r="U32" t="n">
-        <v>70.48592753473031</v>
+        <v>70.48592753473037</v>
       </c>
       <c r="V32" t="n">
-        <v>70.48592753473031</v>
+        <v>70.48592753473037</v>
       </c>
       <c r="W32" t="n">
-        <v>70.48592753473031</v>
+        <v>70.48592753473037</v>
       </c>
       <c r="X32" t="n">
-        <v>70.48592753473031</v>
+        <v>70.48592753473037</v>
       </c>
       <c r="Y32" t="n">
-        <v>70.48592753473031</v>
+        <v>70.48592753473037</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>70.48592753473031</v>
+        <v>70.48592753473037</v>
       </c>
       <c r="C34" t="n">
-        <v>70.48592753473031</v>
+        <v>70.48592753473037</v>
       </c>
       <c r="D34" t="n">
-        <v>70.48592753473031</v>
+        <v>70.48592753473037</v>
       </c>
       <c r="E34" t="n">
-        <v>70.48592753473031</v>
+        <v>70.48592753473037</v>
       </c>
       <c r="F34" t="n">
-        <v>70.48592753473031</v>
+        <v>70.48592753473037</v>
       </c>
       <c r="G34" t="n">
-        <v>70.48592753473031</v>
+        <v>70.48592753473037</v>
       </c>
       <c r="H34" t="n">
-        <v>70.48592753473031</v>
+        <v>70.48592753473037</v>
       </c>
       <c r="I34" t="n">
-        <v>70.48592753473031</v>
+        <v>70.48592753473037</v>
       </c>
       <c r="J34" t="n">
-        <v>70.48592753473031</v>
+        <v>70.48592753473037</v>
       </c>
       <c r="K34" t="n">
-        <v>70.48592753473031</v>
+        <v>70.48592753473037</v>
       </c>
       <c r="L34" t="n">
-        <v>70.48592753473031</v>
+        <v>70.48592753473037</v>
       </c>
       <c r="M34" t="n">
-        <v>70.48592753473031</v>
+        <v>70.48592753473037</v>
       </c>
       <c r="N34" t="n">
-        <v>70.48592753473031</v>
+        <v>70.48592753473037</v>
       </c>
       <c r="O34" t="n">
-        <v>70.48592753473031</v>
+        <v>70.48592753473037</v>
       </c>
       <c r="P34" t="n">
-        <v>70.48592753473031</v>
+        <v>70.48592753473037</v>
       </c>
       <c r="Q34" t="n">
-        <v>70.48592753473031</v>
+        <v>70.48592753473037</v>
       </c>
       <c r="R34" t="n">
-        <v>70.48592753473031</v>
+        <v>70.48592753473037</v>
       </c>
       <c r="S34" t="n">
-        <v>70.48592753473031</v>
+        <v>70.48592753473037</v>
       </c>
       <c r="T34" t="n">
-        <v>70.48592753473031</v>
+        <v>70.48592753473037</v>
       </c>
       <c r="U34" t="n">
-        <v>70.48592753473031</v>
+        <v>70.48592753473037</v>
       </c>
       <c r="V34" t="n">
-        <v>70.48592753473031</v>
+        <v>70.48592753473037</v>
       </c>
       <c r="W34" t="n">
-        <v>70.48592753473031</v>
+        <v>70.48592753473037</v>
       </c>
       <c r="X34" t="n">
-        <v>70.48592753473031</v>
+        <v>70.48592753473037</v>
       </c>
       <c r="Y34" t="n">
-        <v>70.48592753473031</v>
+        <v>70.48592753473037</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="C37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="D37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="E37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="F37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="G37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="H37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="I37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="J37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="K37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="L37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>76.32843350416056</v>
       </c>
       <c r="O37" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>76.32843350415973</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="R37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="S37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="T37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="U37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="V37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="W37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="X37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="C40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="D40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="E40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="F40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="G40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="H40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="I40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="L40" t="n">
-        <v>76.32843350416013</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="O40" t="n">
-        <v>97.68472022810495</v>
+        <v>76.32843350415953</v>
       </c>
       <c r="P40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="Q40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="R40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="S40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="T40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="U40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="V40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="W40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="X40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="C41" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="D41" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="E41" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="F41" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="G41" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="H41" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -30490,7 +30490,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="T41" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="U41" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="V41" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="W41" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="X41" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="Y41" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
     </row>
     <row r="42">
@@ -30605,7 +30605,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
     </row>
     <row r="43">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="C43" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="D43" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="E43" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="F43" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="G43" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="H43" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="I43" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="J43" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="K43" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="L43" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>76.32843350415973</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>76.32843350416024</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="Q43" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="R43" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="S43" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="T43" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="U43" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="V43" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="W43" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="X43" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="C44" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="D44" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="E44" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="F44" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="G44" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="H44" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="T44" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="U44" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="V44" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="W44" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="X44" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="Y44" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="C46" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="D46" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="E46" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="F46" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="G46" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="H46" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="I46" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="J46" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="K46" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="L46" t="n">
-        <v>97.68472022810494</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>76.3284335041603</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="O46" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>76.32843350415956</v>
       </c>
       <c r="Q46" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="R46" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="S46" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="T46" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="U46" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="V46" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="W46" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="X46" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.4699468059329749</v>
+        <v>0.4699468059329752</v>
       </c>
       <c r="H8" t="n">
-        <v>4.812842726261081</v>
+        <v>4.812842726261083</v>
       </c>
       <c r="I8" t="n">
         <v>18.11762423573104</v>
       </c>
       <c r="J8" t="n">
-        <v>39.88614772005387</v>
+        <v>39.88614772005389</v>
       </c>
       <c r="K8" t="n">
-        <v>59.77899601519671</v>
+        <v>59.77899601519674</v>
       </c>
       <c r="L8" t="n">
-        <v>74.16113057726801</v>
+        <v>74.16113057726805</v>
       </c>
       <c r="M8" t="n">
-        <v>82.51854708727855</v>
+        <v>82.51854708727859</v>
       </c>
       <c r="N8" t="n">
-        <v>83.85378344963563</v>
+        <v>83.85378344963567</v>
       </c>
       <c r="O8" t="n">
-        <v>79.1807498981396</v>
+        <v>79.18074989813964</v>
       </c>
       <c r="P8" t="n">
-        <v>67.57893812666927</v>
+        <v>67.5789381266693</v>
       </c>
       <c r="Q8" t="n">
-        <v>50.74896813919459</v>
+        <v>50.74896813919461</v>
       </c>
       <c r="R8" t="n">
-        <v>29.52029604818727</v>
+        <v>29.52029604818728</v>
       </c>
       <c r="S8" t="n">
         <v>10.70891284019768</v>
       </c>
       <c r="T8" t="n">
-        <v>2.057192142971599</v>
+        <v>2.0571921429716</v>
       </c>
       <c r="U8" t="n">
-        <v>0.03759574447463799</v>
+        <v>0.03759574447463801</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2514437084763085</v>
+        <v>0.2514437084763086</v>
       </c>
       <c r="H9" t="n">
-        <v>2.4284168687054</v>
+        <v>2.428416868705402</v>
       </c>
       <c r="I9" t="n">
-        <v>8.657162769907989</v>
+        <v>8.657162769907993</v>
       </c>
       <c r="J9" t="n">
-        <v>23.7559163345972</v>
+        <v>23.75591633459721</v>
       </c>
       <c r="K9" t="n">
-        <v>40.60264480250986</v>
+        <v>40.60264480250989</v>
       </c>
       <c r="L9" t="n">
-        <v>54.59526661455988</v>
+        <v>54.5952666145599</v>
       </c>
       <c r="M9" t="n">
-        <v>63.71010104682604</v>
+        <v>63.71010104682607</v>
       </c>
       <c r="N9" t="n">
-        <v>65.39631784621322</v>
+        <v>65.39631784621326</v>
       </c>
       <c r="O9" t="n">
-        <v>59.82485462155397</v>
+        <v>59.824854621554</v>
       </c>
       <c r="P9" t="n">
-        <v>48.01472008614701</v>
+        <v>48.01472008614704</v>
       </c>
       <c r="Q9" t="n">
-        <v>32.09656882234422</v>
+        <v>32.09656882234423</v>
       </c>
       <c r="R9" t="n">
         <v>15.61156639118695</v>
       </c>
       <c r="S9" t="n">
-        <v>4.670456602619147</v>
+        <v>4.67045660261915</v>
       </c>
       <c r="T9" t="n">
-        <v>1.013494596884769</v>
+        <v>1.01349459688477</v>
       </c>
       <c r="U9" t="n">
         <v>0.01654234924186241</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.210801958644935</v>
+        <v>0.2108019586449351</v>
       </c>
       <c r="H10" t="n">
-        <v>1.874221050497696</v>
+        <v>1.874221050497697</v>
       </c>
       <c r="I10" t="n">
-        <v>6.339389810885866</v>
+        <v>6.339389810885869</v>
       </c>
       <c r="J10" t="n">
-        <v>14.9036984761969</v>
+        <v>14.90369847619691</v>
       </c>
       <c r="K10" t="n">
-        <v>24.49135483165699</v>
+        <v>24.491354831657</v>
       </c>
       <c r="L10" t="n">
-        <v>31.34050210617516</v>
+        <v>31.34050210617518</v>
       </c>
       <c r="M10" t="n">
-        <v>33.04416520831467</v>
+        <v>33.04416520831469</v>
       </c>
       <c r="N10" t="n">
-        <v>32.25844881700176</v>
+        <v>32.25844881700178</v>
       </c>
       <c r="O10" t="n">
-        <v>29.79589866374046</v>
+        <v>29.79589866374048</v>
       </c>
       <c r="P10" t="n">
-        <v>25.49553870738377</v>
+        <v>25.49553870738378</v>
       </c>
       <c r="Q10" t="n">
-        <v>17.65178946434997</v>
+        <v>17.65178946434998</v>
       </c>
       <c r="R10" t="n">
-        <v>9.478422613253167</v>
+        <v>9.478422613253171</v>
       </c>
       <c r="S10" t="n">
-        <v>3.673703224748548</v>
+        <v>3.67370322474855</v>
       </c>
       <c r="T10" t="n">
-        <v>0.9006992778465402</v>
+        <v>0.9006992778465407</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0114982886533601</v>
+        <v>0.01149828865336011</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.898276453978699</v>
+        <v>3.898276453978698</v>
       </c>
       <c r="H11" t="n">
-        <v>39.92322373430936</v>
+        <v>39.92322373430935</v>
       </c>
       <c r="I11" t="n">
         <v>150.2883029920139</v>
       </c>
       <c r="J11" t="n">
-        <v>330.8613411858749</v>
+        <v>330.8613411858748</v>
       </c>
       <c r="K11" t="n">
-        <v>495.8753834827933</v>
+        <v>495.8753834827932</v>
       </c>
       <c r="L11" t="n">
-        <v>615.1772615112441</v>
+        <v>615.177261511244</v>
       </c>
       <c r="M11" t="n">
-        <v>684.5032353996877</v>
+        <v>684.5032353996876</v>
       </c>
       <c r="N11" t="n">
         <v>695.5792133745547</v>
       </c>
       <c r="O11" t="n">
-        <v>656.815726885304</v>
+        <v>656.8157268853039</v>
       </c>
       <c r="P11" t="n">
-        <v>560.5770269277048</v>
+        <v>560.5770269277047</v>
       </c>
       <c r="Q11" t="n">
-        <v>420.9700014195925</v>
+        <v>420.9700014195924</v>
       </c>
       <c r="R11" t="n">
-        <v>244.8751083022397</v>
+        <v>244.8751083022396</v>
       </c>
       <c r="S11" t="n">
-        <v>88.83197469503969</v>
+        <v>88.83197469503968</v>
       </c>
       <c r="T11" t="n">
         <v>17.06470517729176</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3118621163182959</v>
+        <v>0.3118621163182958</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31838,19 +31838,19 @@
         <v>71.81241229460883</v>
       </c>
       <c r="J12" t="n">
-        <v>197.0587481832063</v>
+        <v>197.0587481832062</v>
       </c>
       <c r="K12" t="n">
         <v>336.8047877007151</v>
       </c>
       <c r="L12" t="n">
-        <v>452.8756013560014</v>
+        <v>452.8756013560013</v>
       </c>
       <c r="M12" t="n">
-        <v>528.484466020325</v>
+        <v>528.4844660203249</v>
       </c>
       <c r="N12" t="n">
-        <v>542.4718772812751</v>
+        <v>542.4718772812749</v>
       </c>
       <c r="O12" t="n">
         <v>496.2557872287446</v>
@@ -31859,7 +31859,7 @@
         <v>398.2890199340993</v>
       </c>
       <c r="Q12" t="n">
-        <v>266.2456620920122</v>
+        <v>266.2456620920121</v>
       </c>
       <c r="R12" t="n">
         <v>129.5001921582781</v>
@@ -31868,10 +31868,10 @@
         <v>38.74211032709149</v>
       </c>
       <c r="T12" t="n">
-        <v>8.407083681368853</v>
+        <v>8.407083681368851</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1372211699896985</v>
+        <v>0.1372211699896984</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31914,7 +31914,7 @@
         <v>15.54693360709515</v>
       </c>
       <c r="I13" t="n">
-        <v>52.58615170988828</v>
+        <v>52.58615170988827</v>
       </c>
       <c r="J13" t="n">
         <v>123.6283258306533</v>
@@ -31935,22 +31935,22 @@
         <v>247.1612717005269</v>
       </c>
       <c r="P13" t="n">
-        <v>211.4891663689097</v>
+        <v>211.4891663689096</v>
       </c>
       <c r="Q13" t="n">
         <v>146.4241364570075</v>
       </c>
       <c r="R13" t="n">
-        <v>78.62488100275311</v>
+        <v>78.6248810027531</v>
       </c>
       <c r="S13" t="n">
-        <v>30.47389746912206</v>
+        <v>30.47389746912205</v>
       </c>
       <c r="T13" t="n">
-        <v>7.47143026107844</v>
+        <v>7.471430261078439</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0953799607797249</v>
+        <v>0.09537996077972488</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H32" t="n">
         <v>44.86703772844668</v>
@@ -33418,40 +33418,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J32" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K32" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T32" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U32" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,46 +33488,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H33" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O33" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q33" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33570,43 +33570,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H34" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K34" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L34" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M34" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P34" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q34" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U34" t="n">
         <v>0.1071911508780295</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H35" t="n">
         <v>44.86703772844668</v>
@@ -33655,40 +33655,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R35" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T35" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U35" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,46 +33725,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H36" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33807,43 +33807,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K37" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P37" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q37" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U37" t="n">
         <v>0.1071911508780295</v>
@@ -33971,7 +33971,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
@@ -34208,7 +34208,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>149.8154366591886</v>
+        <v>149.8154366591885</v>
       </c>
       <c r="K11" t="n">
         <v>275.7855324378127</v>
       </c>
       <c r="L11" t="n">
-        <v>379.4108465412568</v>
+        <v>379.4108465412567</v>
       </c>
       <c r="M11" t="n">
-        <v>454.157002172415</v>
+        <v>454.1570021724149</v>
       </c>
       <c r="N11" t="n">
         <v>466.1661497779638</v>
       </c>
       <c r="O11" t="n">
-        <v>426.7175154636172</v>
+        <v>426.7175154636171</v>
       </c>
       <c r="P11" t="n">
-        <v>329.3440311724352</v>
+        <v>329.3440311724351</v>
       </c>
       <c r="Q11" t="n">
         <v>198.664311545143</v>
       </c>
       <c r="R11" t="n">
-        <v>29.28957048810753</v>
+        <v>29.2895704881075</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>70.22112151653957</v>
+        <v>70.22112151653954</v>
       </c>
       <c r="K12" t="n">
         <v>198.9633487263561</v>
       </c>
       <c r="L12" t="n">
-        <v>314.3212215761272</v>
+        <v>314.3212215761271</v>
       </c>
       <c r="M12" t="n">
-        <v>386.3504320983067</v>
+        <v>386.3504320983066</v>
       </c>
       <c r="N12" t="n">
-        <v>411.1301651979418</v>
+        <v>411.1301651979417</v>
       </c>
       <c r="O12" t="n">
-        <v>353.6595427843002</v>
+        <v>353.6595427843001</v>
       </c>
       <c r="P12" t="n">
-        <v>264.3146125197691</v>
+        <v>264.314612519769</v>
       </c>
       <c r="Q12" t="n">
-        <v>126.2638880059907</v>
+        <v>126.2638880059906</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>57.46793840735504</v>
+        <v>57.46793840735502</v>
       </c>
       <c r="K13" t="n">
         <v>208.0886173283054</v>
@@ -35586,7 +35586,7 @@
         <v>235.9665183271777</v>
       </c>
       <c r="Q13" t="n">
-        <v>87.46088589868765</v>
+        <v>87.46088589868764</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35811,7 +35811,7 @@
         <v>346.9561648635727</v>
       </c>
       <c r="M16" t="n">
-        <v>374.8321720868583</v>
+        <v>374.8321720868584</v>
       </c>
       <c r="N16" t="n">
         <v>372.0557388609146</v>
@@ -35820,7 +35820,7 @@
         <v>329.5519229160143</v>
       </c>
       <c r="P16" t="n">
-        <v>262.1558638384849</v>
+        <v>262.155863838485</v>
       </c>
       <c r="Q16" t="n">
         <v>105.5930312312682</v>
@@ -36036,19 +36036,19 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1.332299818266755</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>11.94217529034289</v>
+        <v>98.35547617082865</v>
       </c>
       <c r="K19" t="n">
-        <v>175.632326703829</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L19" t="n">
         <v>254.9673908567486</v>
       </c>
       <c r="M19" t="n">
-        <v>266.808438712143</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N19" t="n">
         <v>270.7239495511832</v>
@@ -36057,13 +36057,13 @@
         <v>236.9961840848622</v>
       </c>
       <c r="P19" t="n">
-        <v>99.95050783106933</v>
+        <v>197.6352280591742</v>
       </c>
       <c r="Q19" t="n">
-        <v>110.736000388247</v>
+        <v>110.7360003882471</v>
       </c>
       <c r="R19" t="n">
-        <v>8.752567558057521</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36276,16 +36276,16 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>89.60290861277159</v>
+        <v>109.6268955184478</v>
       </c>
       <c r="K22" t="n">
-        <v>196.9886134277719</v>
+        <v>185.7171940801529</v>
       </c>
       <c r="L22" t="n">
         <v>254.9673908567486</v>
       </c>
       <c r="M22" t="n">
-        <v>169.1237184840382</v>
+        <v>266.8084387121431</v>
       </c>
       <c r="N22" t="n">
         <v>270.7239495511832</v>
@@ -36297,10 +36297,10 @@
         <v>197.6352280591742</v>
       </c>
       <c r="Q22" t="n">
-        <v>110.736000388247</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R22" t="n">
-        <v>8.752567558057521</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>109.6268955184477</v>
+        <v>109.6268955184478</v>
       </c>
       <c r="K25" t="n">
-        <v>196.9886134277719</v>
+        <v>196.988613427772</v>
       </c>
       <c r="L25" t="n">
-        <v>157.2826706286437</v>
+        <v>254.9673908567486</v>
       </c>
       <c r="M25" t="n">
-        <v>255.5370193645244</v>
+        <v>266.8084387121431</v>
       </c>
       <c r="N25" t="n">
-        <v>173.0392293230783</v>
+        <v>259.4525302035636</v>
       </c>
       <c r="O25" t="n">
         <v>236.9961840848622</v>
       </c>
       <c r="P25" t="n">
-        <v>197.6352280591742</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q25" t="n">
-        <v>110.736000388247</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36589,13 +36589,13 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>28.90899776180436</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>261.2729285034429</v>
       </c>
       <c r="K26" t="n">
-        <v>407.6772140901308</v>
+        <v>407.6772140901309</v>
       </c>
       <c r="L26" t="n">
         <v>526.0760419270625</v>
@@ -36607,13 +36607,13 @@
         <v>622.7877629476418</v>
       </c>
       <c r="O26" t="n">
-        <v>515.2289024461774</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>286.879204123481</v>
       </c>
       <c r="R26" t="n">
         <v>59.61319854222478</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>82.4281028250732</v>
+        <v>82.42810282507324</v>
       </c>
       <c r="K28" t="n">
-        <v>169.7898207343974</v>
+        <v>276.5335870790499</v>
       </c>
       <c r="L28" t="n">
-        <v>227.768598163374</v>
+        <v>365.3517745429543</v>
       </c>
       <c r="M28" t="n">
-        <v>349.4267272244506</v>
+        <v>239.6096460187686</v>
       </c>
       <c r="N28" t="n">
-        <v>415.3428737022704</v>
+        <v>243.5251568578087</v>
       </c>
       <c r="O28" t="n">
-        <v>372.8390577573701</v>
+        <v>209.7973913914877</v>
       </c>
       <c r="P28" t="n">
-        <v>170.4364353657996</v>
+        <v>305.4429986798408</v>
       </c>
       <c r="Q28" t="n">
-        <v>83.53720769487251</v>
+        <v>148.880166072624</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>28.90899776180436</v>
+        <v>28.90899776180441</v>
       </c>
       <c r="J29" t="n">
         <v>261.2729285034429</v>
       </c>
       <c r="K29" t="n">
-        <v>407.6772140901308</v>
+        <v>407.6772140901309</v>
       </c>
       <c r="L29" t="n">
-        <v>526.0760419270625</v>
+        <v>462.7660159502881</v>
       </c>
       <c r="M29" t="n">
-        <v>609.4070433649571</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>622.7877629476418</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>515.2289024461764</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>469.2479137541022</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>321.2802323384498</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>130.0991260769551</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>82.4281028250732</v>
+        <v>116.0643441477966</v>
       </c>
       <c r="K31" t="n">
-        <v>169.7898207343974</v>
+        <v>276.5335870790499</v>
       </c>
       <c r="L31" t="n">
-        <v>390.2432997049284</v>
+        <v>390.2432997049285</v>
       </c>
       <c r="M31" t="n">
-        <v>418.1193069282141</v>
+        <v>316.0884428481122</v>
       </c>
       <c r="N31" t="n">
-        <v>347.2172588228349</v>
+        <v>243.5251568578087</v>
       </c>
       <c r="O31" t="n">
-        <v>209.7973913914876</v>
+        <v>209.7973913914877</v>
       </c>
       <c r="P31" t="n">
-        <v>170.4364353657996</v>
+        <v>170.4364353657997</v>
       </c>
       <c r="Q31" t="n">
-        <v>83.53720769487251</v>
+        <v>148.880166072624</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>28.90899776180436</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>261.2729285034429</v>
+        <v>226.8719002884726</v>
       </c>
       <c r="K32" t="n">
-        <v>344.3671881133574</v>
+        <v>407.677214090131</v>
       </c>
       <c r="L32" t="n">
-        <v>526.0760419270625</v>
+        <v>526.0760419270626</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N32" t="n">
-        <v>622.7877629476418</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>578.5389284229494</v>
+        <v>578.5389284229498</v>
       </c>
       <c r="P32" t="n">
-        <v>469.2479137541022</v>
+        <v>469.2479137541023</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>321.28023233845</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,25 +37145,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q33" t="n">
         <v>159.2338966127272</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>82.4281028250732</v>
+        <v>82.42810282507328</v>
       </c>
       <c r="K34" t="n">
-        <v>169.7898207343974</v>
+        <v>169.7898207343975</v>
       </c>
       <c r="L34" t="n">
-        <v>374.396832899477</v>
+        <v>390.2432997049285</v>
       </c>
       <c r="M34" t="n">
-        <v>239.6096460187685</v>
+        <v>239.6096460187686</v>
       </c>
       <c r="N34" t="n">
-        <v>243.5251568578086</v>
+        <v>415.3428737022705</v>
       </c>
       <c r="O34" t="n">
-        <v>372.8390577573701</v>
+        <v>320.1814374214961</v>
       </c>
       <c r="P34" t="n">
-        <v>305.4429986798407</v>
+        <v>170.4364353657998</v>
       </c>
       <c r="Q34" t="n">
-        <v>83.53720769487251</v>
+        <v>83.53720769487259</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,25 +37382,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597692</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
         <v>159.2338966127272</v>
@@ -37458,34 +37458,34 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>1.332299818266868</v>
+        <v>1.332299818266826</v>
       </c>
       <c r="J37" t="n">
-        <v>109.6268955184479</v>
+        <v>109.6268955184478</v>
       </c>
       <c r="K37" t="n">
-        <v>196.9886134277721</v>
+        <v>196.988613427772</v>
       </c>
       <c r="L37" t="n">
-        <v>254.9673908567487</v>
+        <v>254.9673908567486</v>
       </c>
       <c r="M37" t="n">
-        <v>169.1237184840382</v>
+        <v>266.8084387121431</v>
       </c>
       <c r="N37" t="n">
-        <v>173.0392293230784</v>
+        <v>249.3676628272389</v>
       </c>
       <c r="O37" t="n">
-        <v>236.9961840848623</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P37" t="n">
-        <v>176.2789413352291</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q37" t="n">
-        <v>110.7360003882472</v>
+        <v>110.7360003882471</v>
       </c>
       <c r="R37" t="n">
-        <v>8.752567558057635</v>
+        <v>8.752567558057592</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597692</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
@@ -37695,34 +37695,34 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>1.332299818266854</v>
+        <v>1.332299818266868</v>
       </c>
       <c r="J40" t="n">
-        <v>11.94217529034289</v>
+        <v>109.6268955184479</v>
       </c>
       <c r="K40" t="n">
-        <v>99.30389319966704</v>
+        <v>196.988613427772</v>
       </c>
       <c r="L40" t="n">
-        <v>233.6111041328038</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M40" t="n">
-        <v>266.8084387121431</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N40" t="n">
-        <v>270.7239495511832</v>
+        <v>270.7239495511833</v>
       </c>
       <c r="O40" t="n">
-        <v>236.9961840848623</v>
+        <v>215.6398973609168</v>
       </c>
       <c r="P40" t="n">
         <v>197.6352280591743</v>
       </c>
       <c r="Q40" t="n">
-        <v>110.7360003882471</v>
+        <v>110.7360003882472</v>
       </c>
       <c r="R40" t="n">
-        <v>8.752567558057621</v>
+        <v>8.752567558057635</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37786,7 +37786,7 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302273</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
         <v>552.3018354129115</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597691</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
@@ -37932,34 +37932,34 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>1.33229981826684</v>
+        <v>1.332299818266868</v>
       </c>
       <c r="J43" t="n">
-        <v>109.6268955184478</v>
+        <v>109.6268955184479</v>
       </c>
       <c r="K43" t="n">
         <v>196.988613427772</v>
       </c>
       <c r="L43" t="n">
-        <v>254.9673908567486</v>
+        <v>254.9673908567487</v>
       </c>
       <c r="M43" t="n">
-        <v>169.1237184840382</v>
+        <v>245.4521519881979</v>
       </c>
       <c r="N43" t="n">
         <v>173.0392293230783</v>
       </c>
       <c r="O43" t="n">
-        <v>215.6398973609176</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P43" t="n">
         <v>197.6352280591743</v>
       </c>
       <c r="Q43" t="n">
-        <v>110.7360003882471</v>
+        <v>110.7360003882472</v>
       </c>
       <c r="R43" t="n">
-        <v>8.752567558057606</v>
+        <v>8.752567558057635</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38169,34 +38169,34 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>1.33229981826684</v>
+        <v>1.332299818266868</v>
       </c>
       <c r="J46" t="n">
-        <v>109.6268955184478</v>
+        <v>109.6268955184479</v>
       </c>
       <c r="K46" t="n">
         <v>196.988613427772</v>
       </c>
       <c r="L46" t="n">
-        <v>254.9673908567486</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M46" t="n">
-        <v>245.4521519881985</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N46" t="n">
-        <v>173.0392293230783</v>
+        <v>270.7239495511833</v>
       </c>
       <c r="O46" t="n">
         <v>236.9961840848623</v>
       </c>
       <c r="P46" t="n">
-        <v>99.95050783106933</v>
+        <v>176.2789413352289</v>
       </c>
       <c r="Q46" t="n">
-        <v>110.7360003882471</v>
+        <v>110.7360003882472</v>
       </c>
       <c r="R46" t="n">
-        <v>8.752567558057606</v>
+        <v>8.752567558057635</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
